--- a/backend/test_files/sample_16_SAF.xlsx
+++ b/backend/test_files/sample_16_SAF.xlsx
@@ -427,13 +427,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X330"/>
+  <dimension ref="A1:Y330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -459,6 +459,7 @@
     <col width="13" bestFit="1" customWidth="1" min="22" max="22"/>
     <col width="13" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="13" bestFit="1" customWidth="1" min="24" max="24"/>
+    <col width="13" bestFit="1" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,110 +475,115 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unaligned</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Word1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Word2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Word3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Word4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Word5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Word6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Word7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Word8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Word9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Word10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Word11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Word12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Word13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Word14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Word15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Word16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Word17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Word18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Word19</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Dummy</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Unaligned</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Fases</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Commentaar</t>
         </is>
@@ -592,100 +598,101 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>vind</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>het</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>beetje</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>moeilijk</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>om</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>het</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>goed</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>te</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>vertellen</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>want</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>heb</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>een</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>ongeluk</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>gehad</t>
         </is>
       </c>
-      <c r="U2" s="2" t="n"/>
       <c r="V2" s="2" t="n"/>
       <c r="W2" s="2" t="n"/>
       <c r="X2" s="2" t="n"/>
+      <c r="Y2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -693,16 +700,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
@@ -722,6 +729,7 @@
       <c r="V3" s="3" t="n"/>
       <c r="W3" s="3" t="n"/>
       <c r="X3" s="3" t="n"/>
+      <c r="Y3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -732,12 +740,12 @@
           <t>MLU</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n"/>
       <c r="E4" s="3" t="n"/>
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
@@ -758,6 +766,7 @@
       <c r="V4" s="3" t="n"/>
       <c r="W4" s="3" t="n"/>
       <c r="X4" s="3" t="n"/>
+      <c r="Y4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -771,61 +780,62 @@
       <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>K,PV</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>BIJZIN</t>
         </is>
       </c>
-      <c r="K5" s="3" t="n"/>
       <c r="L5" s="3" t="n"/>
       <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>LEX</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>BIJZIN</t>
         </is>
       </c>
-      <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="R5" s="3" t="n"/>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>LEX</t>
         </is>
       </c>
-      <c r="U5" s="3" t="n"/>
       <c r="V5" s="3" t="n"/>
       <c r="W5" s="3" t="n"/>
       <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -833,7 +843,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C6" s="3" t="n"/>
@@ -858,6 +868,7 @@
       <c r="V6" s="3" t="n"/>
       <c r="W6" s="3" t="n"/>
       <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -865,7 +876,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -890,6 +901,7 @@
       <c r="V7" s="3" t="n"/>
       <c r="W7" s="3" t="n"/>
       <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -897,7 +909,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C8" s="3" t="n"/>
@@ -922,6 +934,7 @@
       <c r="V8" s="3" t="n"/>
       <c r="W8" s="3" t="n"/>
       <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -932,32 +945,32 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>daarvan</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>weet</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>niks</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n"/>
       <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
@@ -974,6 +987,7 @@
       <c r="V9" s="2" t="n"/>
       <c r="W9" s="2" t="n"/>
       <c r="X9" s="2" t="n"/>
+      <c r="Y9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -981,7 +995,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C10" s="3" t="n"/>
@@ -1006,6 +1020,7 @@
       <c r="V10" s="3" t="n"/>
       <c r="W10" s="3" t="n"/>
       <c r="X10" s="3" t="n"/>
+      <c r="Y10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1038,6 +1053,7 @@
       <c r="V11" s="3" t="n"/>
       <c r="W11" s="3" t="n"/>
       <c r="X11" s="3" t="n"/>
+      <c r="Y11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1050,12 +1066,12 @@
       </c>
       <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
       <c r="I12" s="3" t="n"/>
@@ -1074,6 +1090,7 @@
       <c r="V12" s="3" t="n"/>
       <c r="W12" s="3" t="n"/>
       <c r="X12" s="3" t="n"/>
+      <c r="Y12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1081,7 +1098,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -1106,6 +1123,7 @@
       <c r="V13" s="3" t="n"/>
       <c r="W13" s="3" t="n"/>
       <c r="X13" s="3" t="n"/>
+      <c r="Y13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1113,7 +1131,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C14" s="3" t="n"/>
@@ -1138,6 +1156,7 @@
       <c r="V14" s="3" t="n"/>
       <c r="W14" s="3" t="n"/>
       <c r="X14" s="3" t="n"/>
+      <c r="Y14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1145,7 +1164,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
@@ -1170,6 +1189,7 @@
       <c r="V15" s="3" t="n"/>
       <c r="W15" s="3" t="n"/>
       <c r="X15" s="3" t="n"/>
+      <c r="Y15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1180,47 +1200,47 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>heb</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>zes</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>weken</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>weet</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>helemaal</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>niets</t>
         </is>
       </c>
-      <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="n"/>
       <c r="N16" s="2" t="n"/>
@@ -1234,6 +1254,7 @@
       <c r="V16" s="2" t="n"/>
       <c r="W16" s="2" t="n"/>
       <c r="X16" s="2" t="n"/>
+      <c r="Y16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1241,7 +1262,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C17" s="3" t="n"/>
@@ -1266,6 +1287,7 @@
       <c r="V17" s="3" t="n"/>
       <c r="W17" s="3" t="n"/>
       <c r="X17" s="3" t="n"/>
+      <c r="Y17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1298,6 +1320,7 @@
       <c r="V18" s="3" t="n"/>
       <c r="W18" s="3" t="n"/>
       <c r="X18" s="3" t="n"/>
+      <c r="Y18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1309,23 +1332,23 @@
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n"/>
       <c r="I19" s="3" t="n"/>
       <c r="J19" s="3" t="n"/>
       <c r="K19" s="3" t="n"/>
@@ -1342,6 +1365,7 @@
       <c r="V19" s="3" t="n"/>
       <c r="W19" s="3" t="n"/>
       <c r="X19" s="3" t="n"/>
+      <c r="Y19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1349,7 +1373,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C20" s="3" t="n"/>
@@ -1374,6 +1398,7 @@
       <c r="V20" s="3" t="n"/>
       <c r="W20" s="3" t="n"/>
       <c r="X20" s="3" t="n"/>
+      <c r="Y20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1381,7 +1406,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C21" s="3" t="n"/>
@@ -1406,6 +1431,7 @@
       <c r="V21" s="3" t="n"/>
       <c r="W21" s="3" t="n"/>
       <c r="X21" s="3" t="n"/>
+      <c r="Y21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1413,7 +1439,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C22" s="3" t="n"/>
@@ -1438,6 +1464,7 @@
       <c r="V22" s="3" t="n"/>
       <c r="W22" s="3" t="n"/>
       <c r="X22" s="3" t="n"/>
+      <c r="Y22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1448,42 +1475,42 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>nu</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>krijg</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>te</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>horen</t>
         </is>
       </c>
-      <c r="J23" s="2" t="n"/>
       <c r="K23" s="2" t="n"/>
       <c r="L23" s="2" t="n"/>
       <c r="M23" s="2" t="n"/>
@@ -1498,6 +1525,7 @@
       <c r="V23" s="2" t="n"/>
       <c r="W23" s="2" t="n"/>
       <c r="X23" s="2" t="n"/>
+      <c r="Y23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1505,16 +1533,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
@@ -1534,6 +1562,7 @@
       <c r="V24" s="3" t="n"/>
       <c r="W24" s="3" t="n"/>
       <c r="X24" s="3" t="n"/>
+      <c r="Y24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1566,6 +1595,7 @@
       <c r="V25" s="3" t="n"/>
       <c r="W25" s="3" t="n"/>
       <c r="X25" s="3" t="n"/>
+      <c r="Y25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1579,19 +1609,19 @@
       <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="3" t="n"/>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
-      <c r="I26" s="3" t="inlineStr">
+      <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>LEX</t>
         </is>
       </c>
-      <c r="J26" s="3" t="n"/>
       <c r="K26" s="3" t="n"/>
       <c r="L26" s="3" t="n"/>
       <c r="M26" s="3" t="n"/>
@@ -1606,6 +1636,7 @@
       <c r="V26" s="3" t="n"/>
       <c r="W26" s="3" t="n"/>
       <c r="X26" s="3" t="n"/>
+      <c r="Y26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1613,7 +1644,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C27" s="3" t="n"/>
@@ -1638,6 +1669,7 @@
       <c r="V27" s="3" t="n"/>
       <c r="W27" s="3" t="n"/>
       <c r="X27" s="3" t="n"/>
+      <c r="Y27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1645,7 +1677,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C28" s="3" t="n"/>
@@ -1670,6 +1702,7 @@
       <c r="V28" s="3" t="n"/>
       <c r="W28" s="3" t="n"/>
       <c r="X28" s="3" t="n"/>
+      <c r="Y28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1677,7 +1710,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C29" s="3" t="n"/>
@@ -1702,6 +1735,7 @@
       <c r="V29" s="3" t="n"/>
       <c r="W29" s="3" t="n"/>
       <c r="X29" s="3" t="n"/>
+      <c r="Y29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1712,37 +1746,37 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>dat</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>vind</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>wel</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>lastig</t>
         </is>
       </c>
-      <c r="I30" s="2" t="n"/>
       <c r="J30" s="2" t="n"/>
       <c r="K30" s="2" t="n"/>
       <c r="L30" s="2" t="n"/>
@@ -1758,6 +1792,7 @@
       <c r="V30" s="2" t="n"/>
       <c r="W30" s="2" t="n"/>
       <c r="X30" s="2" t="n"/>
+      <c r="Y30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1765,7 +1800,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
@@ -1790,6 +1825,7 @@
       <c r="V31" s="3" t="n"/>
       <c r="W31" s="3" t="n"/>
       <c r="X31" s="3" t="n"/>
+      <c r="Y31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1822,6 +1858,7 @@
       <c r="V32" s="3" t="n"/>
       <c r="W32" s="3" t="n"/>
       <c r="X32" s="3" t="n"/>
+      <c r="Y32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1834,12 +1871,12 @@
       </c>
       <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="F33" s="3" t="n"/>
       <c r="G33" s="3" t="n"/>
       <c r="H33" s="3" t="n"/>
       <c r="I33" s="3" t="n"/>
@@ -1858,6 +1895,7 @@
       <c r="V33" s="3" t="n"/>
       <c r="W33" s="3" t="n"/>
       <c r="X33" s="3" t="n"/>
+      <c r="Y33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1865,7 +1903,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C34" s="3" t="n"/>
@@ -1890,6 +1928,7 @@
       <c r="V34" s="3" t="n"/>
       <c r="W34" s="3" t="n"/>
       <c r="X34" s="3" t="n"/>
+      <c r="Y34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1897,7 +1936,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C35" s="3" t="n"/>
@@ -1922,6 +1961,7 @@
       <c r="V35" s="3" t="n"/>
       <c r="W35" s="3" t="n"/>
       <c r="X35" s="3" t="n"/>
+      <c r="Y35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1929,7 +1969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C36" s="3" t="n"/>
@@ -1954,6 +1994,7 @@
       <c r="V36" s="3" t="n"/>
       <c r="W36" s="3" t="n"/>
       <c r="X36" s="3" t="n"/>
+      <c r="Y36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1964,47 +2005,47 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>verder</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>het</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="H37" s="2" t="inlineStr">
         <is>
           <t>gaat</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>redelijk</t>
         </is>
       </c>
-      <c r="I37" s="2" t="inlineStr">
+      <c r="J37" s="2" t="inlineStr">
         <is>
           <t>denk</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
+      <c r="K37" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="K37" s="2" t="n"/>
       <c r="L37" s="2" t="n"/>
       <c r="M37" s="2" t="n"/>
       <c r="N37" s="2" t="n"/>
@@ -2018,6 +2059,7 @@
       <c r="V37" s="2" t="n"/>
       <c r="W37" s="2" t="n"/>
       <c r="X37" s="2" t="n"/>
+      <c r="Y37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2025,7 +2067,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C38" s="3" t="n"/>
@@ -2050,6 +2092,7 @@
       <c r="V38" s="3" t="n"/>
       <c r="W38" s="3" t="n"/>
       <c r="X38" s="3" t="n"/>
+      <c r="Y38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2062,12 +2105,12 @@
       </c>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="3" t="inlineStr">
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F39" s="3" t="n"/>
       <c r="G39" s="3" t="n"/>
       <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
@@ -2086,6 +2129,7 @@
       <c r="V39" s="3" t="n"/>
       <c r="W39" s="3" t="n"/>
       <c r="X39" s="3" t="n"/>
+      <c r="Y39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2100,18 +2144,18 @@
       <c r="D40" s="3" t="n"/>
       <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
-      <c r="G40" s="3" t="inlineStr">
+      <c r="G40" s="3" t="n"/>
+      <c r="H40" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="H40" s="3" t="n"/>
-      <c r="I40" s="3" t="inlineStr">
+      <c r="I40" s="3" t="n"/>
+      <c r="J40" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="J40" s="3" t="n"/>
       <c r="K40" s="3" t="n"/>
       <c r="L40" s="3" t="n"/>
       <c r="M40" s="3" t="n"/>
@@ -2126,6 +2170,7 @@
       <c r="V40" s="3" t="n"/>
       <c r="W40" s="3" t="n"/>
       <c r="X40" s="3" t="n"/>
+      <c r="Y40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2133,7 +2178,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C41" s="3" t="n"/>
@@ -2158,6 +2203,7 @@
       <c r="V41" s="3" t="n"/>
       <c r="W41" s="3" t="n"/>
       <c r="X41" s="3" t="n"/>
+      <c r="Y41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2165,7 +2211,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C42" s="3" t="n"/>
@@ -2190,6 +2236,7 @@
       <c r="V42" s="3" t="n"/>
       <c r="W42" s="3" t="n"/>
       <c r="X42" s="3" t="n"/>
+      <c r="Y42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2197,7 +2244,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C43" s="3" t="n"/>
@@ -2222,6 +2269,7 @@
       <c r="V43" s="3" t="n"/>
       <c r="W43" s="3" t="n"/>
       <c r="X43" s="3" t="n"/>
+      <c r="Y43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2232,88 +2280,89 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>oh</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>sorry</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>ben</t>
         </is>
       </c>
-      <c r="I44" s="2" t="inlineStr">
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>eerst</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
+      <c r="K44" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="K44" s="2" t="inlineStr">
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>naar</t>
         </is>
       </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="M44" s="2" t="inlineStr">
         <is>
           <t>een</t>
         </is>
       </c>
-      <c r="M44" s="2" t="inlineStr">
+      <c r="N44" s="2" t="inlineStr">
         <is>
           <t>ziekenhuis</t>
         </is>
       </c>
-      <c r="N44" s="2" t="inlineStr">
+      <c r="O44" s="2" t="inlineStr">
         <is>
           <t>geweest</t>
         </is>
       </c>
-      <c r="O44" s="2" t="inlineStr">
+      <c r="P44" s="2" t="inlineStr">
         <is>
           <t>een</t>
         </is>
       </c>
-      <c r="P44" s="2" t="inlineStr">
+      <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>aantal</t>
         </is>
       </c>
-      <c r="Q44" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>weken</t>
         </is>
       </c>
-      <c r="R44" s="2" t="n"/>
       <c r="S44" s="2" t="n"/>
       <c r="T44" s="2" t="n"/>
       <c r="U44" s="2" t="n"/>
       <c r="V44" s="2" t="n"/>
       <c r="W44" s="2" t="n"/>
       <c r="X44" s="2" t="n"/>
+      <c r="Y44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2321,34 +2370,34 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
+          <t>Samplegrootte</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
       <c r="I45" s="3" t="n"/>
-      <c r="J45" s="3" t="inlineStr">
+      <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="K45" s="3" t="n"/>
       <c r="L45" s="3" t="n"/>
       <c r="M45" s="3" t="n"/>
       <c r="N45" s="3" t="n"/>
@@ -2362,6 +2411,7 @@
       <c r="V45" s="3" t="n"/>
       <c r="W45" s="3" t="n"/>
       <c r="X45" s="3" t="n"/>
+      <c r="Y45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2375,12 +2425,12 @@
       <c r="C46" s="3" t="n"/>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="3" t="n"/>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
       <c r="I46" s="3" t="n"/>
       <c r="J46" s="3" t="n"/>
@@ -2398,6 +2448,7 @@
       <c r="V46" s="3" t="n"/>
       <c r="W46" s="3" t="n"/>
       <c r="X46" s="3" t="n"/>
+      <c r="Y46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2413,39 +2464,40 @@
       <c r="E47" s="3" t="n"/>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
-      <c r="H47" s="3" t="inlineStr">
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="inlineStr">
         <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="I47" s="3" t="n"/>
       <c r="J47" s="3" t="n"/>
       <c r="K47" s="3" t="n"/>
       <c r="L47" s="3" t="n"/>
-      <c r="M47" s="3" t="inlineStr">
+      <c r="M47" s="3" t="n"/>
+      <c r="N47" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="N47" s="3" t="n"/>
       <c r="O47" s="3" t="n"/>
-      <c r="P47" s="3" t="inlineStr">
+      <c r="P47" s="3" t="n"/>
+      <c r="Q47" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="Q47" s="3" t="inlineStr">
+      <c r="R47" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="R47" s="3" t="n"/>
       <c r="S47" s="3" t="n"/>
       <c r="T47" s="3" t="n"/>
       <c r="U47" s="3" t="n"/>
       <c r="V47" s="3" t="n"/>
       <c r="W47" s="3" t="n"/>
       <c r="X47" s="3" t="n"/>
+      <c r="Y47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2453,7 +2505,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C48" s="3" t="n"/>
@@ -2478,6 +2530,7 @@
       <c r="V48" s="3" t="n"/>
       <c r="W48" s="3" t="n"/>
       <c r="X48" s="3" t="n"/>
+      <c r="Y48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2485,7 +2538,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C49" s="3" t="n"/>
@@ -2510,6 +2563,7 @@
       <c r="V49" s="3" t="n"/>
       <c r="W49" s="3" t="n"/>
       <c r="X49" s="3" t="n"/>
+      <c r="Y49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2517,7 +2571,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C50" s="3" t="n"/>
@@ -2542,6 +2596,7 @@
       <c r="V50" s="3" t="n"/>
       <c r="W50" s="3" t="n"/>
       <c r="X50" s="3" t="n"/>
+      <c r="Y50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2552,57 +2607,57 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>toen</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>een</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>aantal</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>weken</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="H51" s="2" t="inlineStr">
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>een</t>
         </is>
       </c>
-      <c r="I51" s="2" t="inlineStr">
+      <c r="J51" s="2" t="inlineStr">
         <is>
           <t>een</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
+      <c r="K51" s="2" t="inlineStr">
         <is>
           <t>iets</t>
         </is>
       </c>
-      <c r="K51" s="2" t="inlineStr">
+      <c r="L51" s="2" t="inlineStr">
         <is>
           <t>van</t>
         </is>
       </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="M51" s="2" t="inlineStr">
         <is>
           <t>zorg</t>
         </is>
       </c>
-      <c r="M51" s="2" t="n"/>
       <c r="N51" s="2" t="n"/>
       <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="n"/>
@@ -2614,6 +2669,7 @@
       <c r="V51" s="2" t="n"/>
       <c r="W51" s="2" t="n"/>
       <c r="X51" s="2" t="n"/>
+      <c r="Y51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2621,7 +2677,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C52" s="3" t="n"/>
@@ -2646,6 +2702,7 @@
       <c r="V52" s="3" t="n"/>
       <c r="W52" s="3" t="n"/>
       <c r="X52" s="3" t="n"/>
+      <c r="Y52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2661,12 +2718,12 @@
       <c r="E53" s="3" t="n"/>
       <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="n"/>
-      <c r="H53" s="3" t="inlineStr">
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I53" s="3" t="n"/>
       <c r="J53" s="3" t="n"/>
       <c r="K53" s="3" t="n"/>
       <c r="L53" s="3" t="n"/>
@@ -2682,6 +2739,7 @@
       <c r="V53" s="3" t="n"/>
       <c r="W53" s="3" t="n"/>
       <c r="X53" s="3" t="n"/>
+      <c r="Y53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2692,33 +2750,33 @@
           <t>Taalmaat</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" s="3" t="n"/>
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>BIJZIN</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E54" s="3" t="n"/>
+      <c r="F54" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
+      <c r="G54" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G54" s="3" t="n"/>
       <c r="H54" s="3" t="n"/>
       <c r="I54" s="3" t="n"/>
       <c r="J54" s="3" t="n"/>
       <c r="K54" s="3" t="n"/>
-      <c r="L54" s="3" t="inlineStr">
+      <c r="L54" s="3" t="n"/>
+      <c r="M54" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="M54" s="3" t="n"/>
       <c r="N54" s="3" t="n"/>
       <c r="O54" s="3" t="n"/>
       <c r="P54" s="3" t="n"/>
@@ -2730,6 +2788,7 @@
       <c r="V54" s="3" t="n"/>
       <c r="W54" s="3" t="n"/>
       <c r="X54" s="3" t="n"/>
+      <c r="Y54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2737,7 +2796,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C55" s="3" t="n"/>
@@ -2762,6 +2821,7 @@
       <c r="V55" s="3" t="n"/>
       <c r="W55" s="3" t="n"/>
       <c r="X55" s="3" t="n"/>
+      <c r="Y55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2769,7 +2829,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C56" s="3" t="n"/>
@@ -2794,6 +2854,7 @@
       <c r="V56" s="3" t="n"/>
       <c r="W56" s="3" t="n"/>
       <c r="X56" s="3" t="n"/>
+      <c r="Y56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2801,7 +2862,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C57" s="3" t="n"/>
@@ -2826,6 +2887,7 @@
       <c r="V57" s="3" t="n"/>
       <c r="W57" s="3" t="n"/>
       <c r="X57" s="3" t="n"/>
+      <c r="Y57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2836,39 +2898,35 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>weet</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>niet</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr">
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>uh</t>
-        </is>
-      </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>uh(</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
@@ -2894,6 +2952,7 @@
       <c r="V58" s="2" t="n"/>
       <c r="W58" s="2" t="n"/>
       <c r="X58" s="2" t="n"/>
+      <c r="Y58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2901,23 +2960,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C59" s="3" t="n"/>
       <c r="D59" s="3" t="n"/>
       <c r="E59" s="3" t="n"/>
-      <c r="F59" s="3" t="inlineStr">
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G59" s="3" t="n"/>
-      <c r="H59" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H59" s="3" t="n"/>
       <c r="I59" s="3" t="n"/>
       <c r="J59" s="3" t="n"/>
       <c r="K59" s="3" t="n"/>
@@ -2934,6 +2989,7 @@
       <c r="V59" s="3" t="n"/>
       <c r="W59" s="3" t="n"/>
       <c r="X59" s="3" t="n"/>
+      <c r="Y59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2950,7 +3006,11 @@
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
       <c r="H60" s="3" t="n"/>
-      <c r="I60" s="3" t="n"/>
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J60" s="3" t="n"/>
       <c r="K60" s="3" t="n"/>
       <c r="L60" s="3" t="n"/>
@@ -2966,6 +3026,7 @@
       <c r="V60" s="3" t="n"/>
       <c r="W60" s="3" t="n"/>
       <c r="X60" s="3" t="n"/>
+      <c r="Y60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2977,12 +3038,12 @@
         </is>
       </c>
       <c r="C61" s="3" t="n"/>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n"/>
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="3" t="n"/>
@@ -3002,6 +3063,7 @@
       <c r="V61" s="3" t="n"/>
       <c r="W61" s="3" t="n"/>
       <c r="X61" s="3" t="n"/>
+      <c r="Y61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3009,7 +3071,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C62" s="3" t="n"/>
@@ -3034,6 +3096,7 @@
       <c r="V62" s="3" t="n"/>
       <c r="W62" s="3" t="n"/>
       <c r="X62" s="3" t="n"/>
+      <c r="Y62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3041,7 +3104,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C63" s="3" t="n"/>
@@ -3066,6 +3129,7 @@
       <c r="V63" s="3" t="n"/>
       <c r="W63" s="3" t="n"/>
       <c r="X63" s="3" t="n"/>
+      <c r="Y63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3073,7 +3137,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C64" s="3" t="n"/>
@@ -3098,6 +3162,7 @@
       <c r="V64" s="3" t="n"/>
       <c r="W64" s="3" t="n"/>
       <c r="X64" s="3" t="n"/>
+      <c r="Y64" s="3" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3108,27 +3173,27 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>buiten</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>breda</t>
         </is>
       </c>
-      <c r="G65" s="2" t="n"/>
       <c r="H65" s="2" t="n"/>
       <c r="I65" s="2" t="n"/>
       <c r="J65" s="2" t="n"/>
@@ -3146,6 +3211,7 @@
       <c r="V65" s="2" t="n"/>
       <c r="W65" s="2" t="n"/>
       <c r="X65" s="2" t="n"/>
+      <c r="Y65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3153,15 +3219,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
+          <t>Samplegrootte</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n"/>
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D66" s="3" t="n"/>
       <c r="E66" s="3" t="n"/>
       <c r="F66" s="3" t="n"/>
       <c r="G66" s="3" t="n"/>
@@ -3182,6 +3248,7 @@
       <c r="V66" s="3" t="n"/>
       <c r="W66" s="3" t="n"/>
       <c r="X66" s="3" t="n"/>
+      <c r="Y66" s="3" t="n"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3214,6 +3281,7 @@
       <c r="V67" s="3" t="n"/>
       <c r="W67" s="3" t="n"/>
       <c r="X67" s="3" t="n"/>
+      <c r="Y67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3226,17 +3294,17 @@
       </c>
       <c r="C68" s="3" t="n"/>
       <c r="D68" s="3" t="n"/>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="E68" s="3" t="n"/>
+      <c r="F68" s="3" t="inlineStr">
         <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="F68" s="3" t="inlineStr">
+      <c r="G68" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G68" s="3" t="n"/>
       <c r="H68" s="3" t="n"/>
       <c r="I68" s="3" t="n"/>
       <c r="J68" s="3" t="n"/>
@@ -3254,6 +3322,7 @@
       <c r="V68" s="3" t="n"/>
       <c r="W68" s="3" t="n"/>
       <c r="X68" s="3" t="n"/>
+      <c r="Y68" s="3" t="n"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3261,7 +3330,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C69" s="3" t="n"/>
@@ -3286,6 +3355,7 @@
       <c r="V69" s="3" t="n"/>
       <c r="W69" s="3" t="n"/>
       <c r="X69" s="3" t="n"/>
+      <c r="Y69" s="3" t="n"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3293,7 +3363,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C70" s="3" t="n"/>
@@ -3318,6 +3388,7 @@
       <c r="V70" s="3" t="n"/>
       <c r="W70" s="3" t="n"/>
       <c r="X70" s="3" t="n"/>
+      <c r="Y70" s="3" t="n"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3325,7 +3396,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C71" s="3" t="n"/>
@@ -3350,6 +3421,7 @@
       <c r="V71" s="3" t="n"/>
       <c r="W71" s="3" t="n"/>
       <c r="X71" s="3" t="n"/>
+      <c r="Y71" s="3" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3360,32 +3432,32 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>niet</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr">
         <is>
           <t>zo</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr">
+      <c r="F72" s="2" t="inlineStr">
         <is>
           <t>ver</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="G72" s="2" t="inlineStr">
         <is>
           <t>denk</t>
         </is>
       </c>
-      <c r="G72" s="2" t="inlineStr">
+      <c r="H72" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="H72" s="2" t="n"/>
       <c r="I72" s="2" t="n"/>
       <c r="J72" s="2" t="n"/>
       <c r="K72" s="2" t="n"/>
@@ -3402,6 +3474,7 @@
       <c r="V72" s="2" t="n"/>
       <c r="W72" s="2" t="n"/>
       <c r="X72" s="2" t="n"/>
+      <c r="Y72" s="2" t="n"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3409,7 +3482,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C73" s="3" t="n"/>
@@ -3434,6 +3507,7 @@
       <c r="V73" s="3" t="n"/>
       <c r="W73" s="3" t="n"/>
       <c r="X73" s="3" t="n"/>
+      <c r="Y73" s="3" t="n"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3466,6 +3540,7 @@
       <c r="V74" s="3" t="n"/>
       <c r="W74" s="3" t="n"/>
       <c r="X74" s="3" t="n"/>
+      <c r="Y74" s="3" t="n"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3479,12 +3554,12 @@
       <c r="C75" s="3" t="n"/>
       <c r="D75" s="3" t="n"/>
       <c r="E75" s="3" t="n"/>
-      <c r="F75" s="3" t="inlineStr">
+      <c r="F75" s="3" t="n"/>
+      <c r="G75" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="G75" s="3" t="n"/>
       <c r="H75" s="3" t="n"/>
       <c r="I75" s="3" t="n"/>
       <c r="J75" s="3" t="n"/>
@@ -3502,6 +3577,7 @@
       <c r="V75" s="3" t="n"/>
       <c r="W75" s="3" t="n"/>
       <c r="X75" s="3" t="n"/>
+      <c r="Y75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3509,7 +3585,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C76" s="3" t="n"/>
@@ -3534,6 +3610,7 @@
       <c r="V76" s="3" t="n"/>
       <c r="W76" s="3" t="n"/>
       <c r="X76" s="3" t="n"/>
+      <c r="Y76" s="3" t="n"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3541,7 +3618,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C77" s="3" t="n"/>
@@ -3566,6 +3643,7 @@
       <c r="V77" s="3" t="n"/>
       <c r="W77" s="3" t="n"/>
       <c r="X77" s="3" t="n"/>
+      <c r="Y77" s="3" t="n"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3573,7 +3651,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C78" s="3" t="n"/>
@@ -3598,6 +3676,7 @@
       <c r="V78" s="3" t="n"/>
       <c r="W78" s="3" t="n"/>
       <c r="X78" s="3" t="n"/>
+      <c r="Y78" s="3" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -3608,22 +3687,22 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr"/>
+      <c r="D79" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="D79" s="2" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>weet</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>niet</t>
         </is>
       </c>
-      <c r="F79" s="2" t="n"/>
       <c r="G79" s="2" t="n"/>
       <c r="H79" s="2" t="n"/>
       <c r="I79" s="2" t="n"/>
@@ -3642,6 +3721,7 @@
       <c r="V79" s="2" t="n"/>
       <c r="W79" s="2" t="n"/>
       <c r="X79" s="2" t="n"/>
+      <c r="Y79" s="2" t="n"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3649,7 +3729,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C80" s="3" t="n"/>
@@ -3674,6 +3754,7 @@
       <c r="V80" s="3" t="n"/>
       <c r="W80" s="3" t="n"/>
       <c r="X80" s="3" t="n"/>
+      <c r="Y80" s="3" t="n"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3706,6 +3787,7 @@
       <c r="V81" s="3" t="n"/>
       <c r="W81" s="3" t="n"/>
       <c r="X81" s="3" t="n"/>
+      <c r="Y81" s="3" t="n"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3717,12 +3799,12 @@
         </is>
       </c>
       <c r="C82" s="3" t="n"/>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="D82" s="3" t="n"/>
+      <c r="E82" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="E82" s="3" t="n"/>
       <c r="F82" s="3" t="n"/>
       <c r="G82" s="3" t="n"/>
       <c r="H82" s="3" t="n"/>
@@ -3742,6 +3824,7 @@
       <c r="V82" s="3" t="n"/>
       <c r="W82" s="3" t="n"/>
       <c r="X82" s="3" t="n"/>
+      <c r="Y82" s="3" t="n"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3749,7 +3832,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C83" s="3" t="n"/>
@@ -3774,6 +3857,7 @@
       <c r="V83" s="3" t="n"/>
       <c r="W83" s="3" t="n"/>
       <c r="X83" s="3" t="n"/>
+      <c r="Y83" s="3" t="n"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3781,7 +3865,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C84" s="3" t="n"/>
@@ -3806,6 +3890,7 @@
       <c r="V84" s="3" t="n"/>
       <c r="W84" s="3" t="n"/>
       <c r="X84" s="3" t="n"/>
+      <c r="Y84" s="3" t="n"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3813,7 +3898,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C85" s="3" t="n"/>
@@ -3838,6 +3923,7 @@
       <c r="V85" s="3" t="n"/>
       <c r="W85" s="3" t="n"/>
       <c r="X85" s="3" t="n"/>
+      <c r="Y85" s="3" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -3848,72 +3934,72 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>toen</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="G86" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="G86" s="2" t="inlineStr">
+      <c r="H86" s="2" t="inlineStr">
         <is>
           <t>zo</t>
         </is>
       </c>
-      <c r="H86" s="2" t="inlineStr">
+      <c r="I86" s="2" t="inlineStr">
         <is>
           <t>ver</t>
         </is>
       </c>
-      <c r="I86" s="2" t="inlineStr">
+      <c r="J86" s="2" t="inlineStr">
         <is>
           <t>weer</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
+      <c r="K86" s="2" t="inlineStr">
         <is>
           <t>was</t>
         </is>
       </c>
-      <c r="K86" s="2" t="inlineStr">
+      <c r="L86" s="2" t="inlineStr">
         <is>
           <t>ben</t>
         </is>
       </c>
-      <c r="L86" s="2" t="inlineStr">
+      <c r="M86" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="M86" s="2" t="inlineStr">
+      <c r="N86" s="2" t="inlineStr">
         <is>
           <t>naar</t>
         </is>
       </c>
-      <c r="N86" s="2" t="inlineStr">
+      <c r="O86" s="2" t="inlineStr">
         <is>
           <t>hier</t>
         </is>
       </c>
-      <c r="O86" s="2" t="inlineStr">
+      <c r="P86" s="2" t="inlineStr">
         <is>
           <t>gekomen</t>
         </is>
       </c>
-      <c r="P86" s="2" t="n"/>
       <c r="Q86" s="2" t="n"/>
       <c r="R86" s="2" t="n"/>
       <c r="S86" s="2" t="n"/>
@@ -3922,6 +4008,7 @@
       <c r="V86" s="2" t="n"/>
       <c r="W86" s="2" t="n"/>
       <c r="X86" s="2" t="n"/>
+      <c r="Y86" s="2" t="n"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3929,7 +4016,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C87" s="3" t="n"/>
@@ -3954,6 +4041,7 @@
       <c r="V87" s="3" t="n"/>
       <c r="W87" s="3" t="n"/>
       <c r="X87" s="3" t="n"/>
+      <c r="Y87" s="3" t="n"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3964,12 +4052,12 @@
           <t>MLU</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
+      <c r="C88" s="3" t="n"/>
+      <c r="D88" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D88" s="3" t="n"/>
       <c r="E88" s="3" t="n"/>
       <c r="F88" s="3" t="n"/>
       <c r="G88" s="3" t="n"/>
@@ -3990,6 +4078,7 @@
       <c r="V88" s="3" t="n"/>
       <c r="W88" s="3" t="n"/>
       <c r="X88" s="3" t="n"/>
+      <c r="Y88" s="3" t="n"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4005,31 +4094,31 @@
       <c r="E89" s="3" t="n"/>
       <c r="F89" s="3" t="n"/>
       <c r="G89" s="3" t="n"/>
-      <c r="H89" s="3" t="inlineStr">
+      <c r="H89" s="3" t="n"/>
+      <c r="I89" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I89" s="3" t="n"/>
-      <c r="J89" s="3" t="inlineStr">
+      <c r="J89" s="3" t="n"/>
+      <c r="K89" s="3" t="inlineStr">
         <is>
           <t>K,PV</t>
         </is>
       </c>
-      <c r="K89" s="3" t="inlineStr">
+      <c r="L89" s="3" t="inlineStr">
         <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="L89" s="3" t="n"/>
       <c r="M89" s="3" t="n"/>
       <c r="N89" s="3" t="n"/>
-      <c r="O89" s="3" t="inlineStr">
+      <c r="O89" s="3" t="n"/>
+      <c r="P89" s="3" t="inlineStr">
         <is>
           <t>LEX</t>
         </is>
       </c>
-      <c r="P89" s="3" t="n"/>
       <c r="Q89" s="3" t="n"/>
       <c r="R89" s="3" t="n"/>
       <c r="S89" s="3" t="n"/>
@@ -4038,6 +4127,7 @@
       <c r="V89" s="3" t="n"/>
       <c r="W89" s="3" t="n"/>
       <c r="X89" s="3" t="n"/>
+      <c r="Y89" s="3" t="n"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4045,7 +4135,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C90" s="3" t="n"/>
@@ -4070,6 +4160,7 @@
       <c r="V90" s="3" t="n"/>
       <c r="W90" s="3" t="n"/>
       <c r="X90" s="3" t="n"/>
+      <c r="Y90" s="3" t="n"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4077,7 +4168,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C91" s="3" t="n"/>
@@ -4102,6 +4193,7 @@
       <c r="V91" s="3" t="n"/>
       <c r="W91" s="3" t="n"/>
       <c r="X91" s="3" t="n"/>
+      <c r="Y91" s="3" t="n"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4109,7 +4201,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C92" s="3" t="n"/>
@@ -4134,6 +4226,7 @@
       <c r="V92" s="3" t="n"/>
       <c r="W92" s="3" t="n"/>
       <c r="X92" s="3" t="n"/>
+      <c r="Y92" s="3" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4144,32 +4237,32 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="inlineStr">
         <is>
           <t>dat</t>
         </is>
       </c>
-      <c r="D93" s="2" t="inlineStr">
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>heet</t>
         </is>
       </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
+      <c r="G93" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>zorginstelling1</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="n"/>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>rijnstate</t>
+        </is>
+      </c>
       <c r="I93" s="2" t="n"/>
       <c r="J93" s="2" t="n"/>
       <c r="K93" s="2" t="n"/>
@@ -4186,6 +4279,7 @@
       <c r="V93" s="2" t="n"/>
       <c r="W93" s="2" t="n"/>
       <c r="X93" s="2" t="n"/>
+      <c r="Y93" s="2" t="n"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4193,18 +4287,18 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C94" s="3" t="n"/>
       <c r="D94" s="3" t="n"/>
       <c r="E94" s="3" t="n"/>
-      <c r="F94" s="3" t="inlineStr">
+      <c r="F94" s="3" t="n"/>
+      <c r="G94" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G94" s="3" t="n"/>
       <c r="H94" s="3" t="n"/>
       <c r="I94" s="3" t="n"/>
       <c r="J94" s="3" t="n"/>
@@ -4222,6 +4316,7 @@
       <c r="V94" s="3" t="n"/>
       <c r="W94" s="3" t="n"/>
       <c r="X94" s="3" t="n"/>
+      <c r="Y94" s="3" t="n"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4254,6 +4349,7 @@
       <c r="V95" s="3" t="n"/>
       <c r="W95" s="3" t="n"/>
       <c r="X95" s="3" t="n"/>
+      <c r="Y95" s="3" t="n"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4265,19 +4361,19 @@
         </is>
       </c>
       <c r="C96" s="3" t="n"/>
-      <c r="D96" s="3" t="inlineStr">
+      <c r="D96" s="3" t="n"/>
+      <c r="E96" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="E96" s="3" t="n"/>
       <c r="F96" s="3" t="n"/>
-      <c r="G96" s="3" t="inlineStr">
+      <c r="G96" s="3" t="n"/>
+      <c r="H96" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="H96" s="3" t="n"/>
       <c r="I96" s="3" t="n"/>
       <c r="J96" s="3" t="n"/>
       <c r="K96" s="3" t="n"/>
@@ -4294,6 +4390,7 @@
       <c r="V96" s="3" t="n"/>
       <c r="W96" s="3" t="n"/>
       <c r="X96" s="3" t="n"/>
+      <c r="Y96" s="3" t="n"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4301,7 +4398,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C97" s="3" t="n"/>
@@ -4326,6 +4423,7 @@
       <c r="V97" s="3" t="n"/>
       <c r="W97" s="3" t="n"/>
       <c r="X97" s="3" t="n"/>
+      <c r="Y97" s="3" t="n"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4333,7 +4431,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C98" s="3" t="n"/>
@@ -4358,6 +4456,7 @@
       <c r="V98" s="3" t="n"/>
       <c r="W98" s="3" t="n"/>
       <c r="X98" s="3" t="n"/>
+      <c r="Y98" s="3" t="n"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4365,7 +4464,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C99" s="3" t="n"/>
@@ -4390,6 +4489,7 @@
       <c r="V99" s="3" t="n"/>
       <c r="W99" s="3" t="n"/>
       <c r="X99" s="3" t="n"/>
+      <c r="Y99" s="3" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -4400,17 +4500,17 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr"/>
+      <c r="D100" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>beroep1</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="n"/>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>chirurgh</t>
+        </is>
+      </c>
       <c r="F100" s="2" t="n"/>
       <c r="G100" s="2" t="n"/>
       <c r="H100" s="2" t="n"/>
@@ -4430,6 +4530,7 @@
       <c r="V100" s="2" t="n"/>
       <c r="W100" s="2" t="n"/>
       <c r="X100" s="2" t="n"/>
+      <c r="Y100" s="2" t="n"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4437,15 +4538,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
+          <t>Samplegrootte</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D101" s="3" t="n"/>
       <c r="E101" s="3" t="n"/>
       <c r="F101" s="3" t="n"/>
       <c r="G101" s="3" t="n"/>
@@ -4466,6 +4567,7 @@
       <c r="V101" s="3" t="n"/>
       <c r="W101" s="3" t="n"/>
       <c r="X101" s="3" t="n"/>
+      <c r="Y101" s="3" t="n"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4478,7 +4580,11 @@
       </c>
       <c r="C102" s="3" t="n"/>
       <c r="D102" s="3" t="n"/>
-      <c r="E102" s="3" t="n"/>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F102" s="3" t="n"/>
       <c r="G102" s="3" t="n"/>
       <c r="H102" s="3" t="n"/>
@@ -4498,6 +4604,7 @@
       <c r="V102" s="3" t="n"/>
       <c r="W102" s="3" t="n"/>
       <c r="X102" s="3" t="n"/>
+      <c r="Y102" s="3" t="n"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4509,11 +4616,7 @@
         </is>
       </c>
       <c r="C103" s="3" t="n"/>
-      <c r="D103" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="D103" s="3" t="n"/>
       <c r="E103" s="3" t="n"/>
       <c r="F103" s="3" t="n"/>
       <c r="G103" s="3" t="n"/>
@@ -4534,6 +4637,7 @@
       <c r="V103" s="3" t="n"/>
       <c r="W103" s="3" t="n"/>
       <c r="X103" s="3" t="n"/>
+      <c r="Y103" s="3" t="n"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4541,7 +4645,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C104" s="3" t="n"/>
@@ -4566,6 +4670,7 @@
       <c r="V104" s="3" t="n"/>
       <c r="W104" s="3" t="n"/>
       <c r="X104" s="3" t="n"/>
+      <c r="Y104" s="3" t="n"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4573,7 +4678,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C105" s="3" t="n"/>
@@ -4598,6 +4703,7 @@
       <c r="V105" s="3" t="n"/>
       <c r="W105" s="3" t="n"/>
       <c r="X105" s="3" t="n"/>
+      <c r="Y105" s="3" t="n"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4605,7 +4711,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C106" s="3" t="n"/>
@@ -4630,6 +4736,7 @@
       <c r="V106" s="3" t="n"/>
       <c r="W106" s="3" t="n"/>
       <c r="X106" s="3" t="n"/>
+      <c r="Y106" s="3" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -4640,37 +4747,37 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr"/>
+      <c r="D107" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="D107" s="2" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr">
         <is>
           <t>heel</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="G107" s="2" t="inlineStr">
         <is>
           <t>erg</t>
         </is>
       </c>
-      <c r="G107" s="2" t="inlineStr">
+      <c r="H107" s="2" t="inlineStr">
         <is>
           <t>leuk</t>
         </is>
       </c>
-      <c r="H107" s="2" t="inlineStr">
+      <c r="I107" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="I107" s="2" t="n"/>
       <c r="J107" s="2" t="n"/>
       <c r="K107" s="2" t="n"/>
       <c r="L107" s="2" t="n"/>
@@ -4686,6 +4793,7 @@
       <c r="V107" s="2" t="n"/>
       <c r="W107" s="2" t="n"/>
       <c r="X107" s="2" t="n"/>
+      <c r="Y107" s="2" t="n"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4693,7 +4801,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C108" s="3" t="n"/>
@@ -4718,6 +4826,7 @@
       <c r="V108" s="3" t="n"/>
       <c r="W108" s="3" t="n"/>
       <c r="X108" s="3" t="n"/>
+      <c r="Y108" s="3" t="n"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4728,21 +4837,21 @@
           <t>MLU</t>
         </is>
       </c>
-      <c r="C109" s="3" t="inlineStr">
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D109" s="3" t="n"/>
       <c r="E109" s="3" t="n"/>
       <c r="F109" s="3" t="n"/>
       <c r="G109" s="3" t="n"/>
-      <c r="H109" s="3" t="inlineStr">
+      <c r="H109" s="3" t="n"/>
+      <c r="I109" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I109" s="3" t="n"/>
       <c r="J109" s="3" t="n"/>
       <c r="K109" s="3" t="n"/>
       <c r="L109" s="3" t="n"/>
@@ -4758,6 +4867,7 @@
       <c r="V109" s="3" t="n"/>
       <c r="W109" s="3" t="n"/>
       <c r="X109" s="3" t="n"/>
+      <c r="Y109" s="3" t="n"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4769,19 +4879,19 @@
         </is>
       </c>
       <c r="C110" s="3" t="n"/>
-      <c r="D110" s="3" t="inlineStr">
+      <c r="D110" s="3" t="n"/>
+      <c r="E110" s="3" t="inlineStr">
         <is>
           <t>K,PV</t>
         </is>
       </c>
-      <c r="E110" s="3" t="n"/>
       <c r="F110" s="3" t="n"/>
-      <c r="G110" s="3" t="inlineStr">
+      <c r="G110" s="3" t="n"/>
+      <c r="H110" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H110" s="3" t="n"/>
       <c r="I110" s="3" t="n"/>
       <c r="J110" s="3" t="n"/>
       <c r="K110" s="3" t="n"/>
@@ -4798,6 +4908,7 @@
       <c r="V110" s="3" t="n"/>
       <c r="W110" s="3" t="n"/>
       <c r="X110" s="3" t="n"/>
+      <c r="Y110" s="3" t="n"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4805,7 +4916,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C111" s="3" t="n"/>
@@ -4830,6 +4941,7 @@
       <c r="V111" s="3" t="n"/>
       <c r="W111" s="3" t="n"/>
       <c r="X111" s="3" t="n"/>
+      <c r="Y111" s="3" t="n"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4837,7 +4949,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C112" s="3" t="n"/>
@@ -4862,6 +4974,7 @@
       <c r="V112" s="3" t="n"/>
       <c r="W112" s="3" t="n"/>
       <c r="X112" s="3" t="n"/>
+      <c r="Y112" s="3" t="n"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4869,7 +4982,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C113" s="3" t="n"/>
@@ -4894,6 +5007,7 @@
       <c r="V113" s="3" t="n"/>
       <c r="W113" s="3" t="n"/>
       <c r="X113" s="3" t="n"/>
+      <c r="Y113" s="3" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -4904,47 +5018,47 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr"/>
+      <c r="D114" s="2" t="inlineStr">
         <is>
           <t>kinderen</t>
         </is>
       </c>
-      <c r="D114" s="2" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="E114" s="2" t="inlineStr">
+      <c r="F114" s="2" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="F114" s="2" t="inlineStr">
+      <c r="G114" s="2" t="inlineStr">
         <is>
           <t>groep</t>
         </is>
       </c>
-      <c r="G114" s="2" t="inlineStr">
+      <c r="H114" s="2" t="inlineStr">
         <is>
           <t>van</t>
         </is>
       </c>
-      <c r="H114" s="2" t="inlineStr">
+      <c r="I114" s="2" t="inlineStr">
         <is>
           <t>tien</t>
         </is>
       </c>
-      <c r="I114" s="2" t="inlineStr">
+      <c r="J114" s="2" t="inlineStr">
         <is>
           <t>tot</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
+      <c r="K114" s="2" t="inlineStr">
         <is>
           <t>twaalf</t>
         </is>
       </c>
-      <c r="K114" s="2" t="n"/>
       <c r="L114" s="2" t="n"/>
       <c r="M114" s="2" t="n"/>
       <c r="N114" s="2" t="n"/>
@@ -4958,6 +5072,7 @@
       <c r="V114" s="2" t="n"/>
       <c r="W114" s="2" t="n"/>
       <c r="X114" s="2" t="n"/>
+      <c r="Y114" s="2" t="n"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4965,7 +5080,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C115" s="3" t="n"/>
@@ -4990,6 +5105,7 @@
       <c r="V115" s="3" t="n"/>
       <c r="W115" s="3" t="n"/>
       <c r="X115" s="3" t="n"/>
+      <c r="Y115" s="3" t="n"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5022,6 +5138,7 @@
       <c r="V116" s="3" t="n"/>
       <c r="W116" s="3" t="n"/>
       <c r="X116" s="3" t="n"/>
+      <c r="Y116" s="3" t="n"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5032,19 +5149,19 @@
           <t>Taalmaat</t>
         </is>
       </c>
-      <c r="C117" s="3" t="inlineStr">
+      <c r="C117" s="3" t="n"/>
+      <c r="D117" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D117" s="3" t="n"/>
       <c r="E117" s="3" t="n"/>
-      <c r="F117" s="3" t="inlineStr">
+      <c r="F117" s="3" t="n"/>
+      <c r="G117" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G117" s="3" t="n"/>
       <c r="H117" s="3" t="n"/>
       <c r="I117" s="3" t="n"/>
       <c r="J117" s="3" t="n"/>
@@ -5062,6 +5179,7 @@
       <c r="V117" s="3" t="n"/>
       <c r="W117" s="3" t="n"/>
       <c r="X117" s="3" t="n"/>
+      <c r="Y117" s="3" t="n"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5069,7 +5187,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C118" s="3" t="n"/>
@@ -5094,6 +5212,7 @@
       <c r="V118" s="3" t="n"/>
       <c r="W118" s="3" t="n"/>
       <c r="X118" s="3" t="n"/>
+      <c r="Y118" s="3" t="n"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5101,7 +5220,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C119" s="3" t="n"/>
@@ -5126,6 +5245,7 @@
       <c r="V119" s="3" t="n"/>
       <c r="W119" s="3" t="n"/>
       <c r="X119" s="3" t="n"/>
+      <c r="Y119" s="3" t="n"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5133,7 +5253,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C120" s="3" t="n"/>
@@ -5158,6 +5278,7 @@
       <c r="V120" s="3" t="n"/>
       <c r="W120" s="3" t="n"/>
       <c r="X120" s="3" t="n"/>
+      <c r="Y120" s="3" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -5168,62 +5289,62 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr"/>
+      <c r="D121" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D121" s="2" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>ze</t>
         </is>
       </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="F121" s="2" t="inlineStr">
         <is>
           <t>zijn</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
+      <c r="G121" s="2" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="G121" s="2" t="inlineStr">
+      <c r="H121" s="2" t="inlineStr">
         <is>
           <t>leeftijd</t>
         </is>
       </c>
-      <c r="H121" s="2" t="inlineStr">
+      <c r="I121" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="I121" s="2" t="inlineStr">
+      <c r="J121" s="2" t="inlineStr">
         <is>
           <t>van</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
+      <c r="K121" s="2" t="inlineStr">
         <is>
           <t>nul</t>
         </is>
       </c>
-      <c r="K121" s="2" t="inlineStr">
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>tot</t>
         </is>
       </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="M121" s="2" t="inlineStr">
         <is>
           <t>bijna</t>
         </is>
       </c>
-      <c r="M121" s="2" t="inlineStr">
+      <c r="N121" s="2" t="inlineStr">
         <is>
           <t>drie</t>
         </is>
       </c>
-      <c r="N121" s="2" t="n"/>
       <c r="O121" s="2" t="n"/>
       <c r="P121" s="2" t="n"/>
       <c r="Q121" s="2" t="n"/>
@@ -5234,6 +5355,7 @@
       <c r="V121" s="2" t="n"/>
       <c r="W121" s="2" t="n"/>
       <c r="X121" s="2" t="n"/>
+      <c r="Y121" s="2" t="n"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5241,7 +5363,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C122" s="3" t="n"/>
@@ -5266,6 +5388,7 @@
       <c r="V122" s="3" t="n"/>
       <c r="W122" s="3" t="n"/>
       <c r="X122" s="3" t="n"/>
+      <c r="Y122" s="3" t="n"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5278,8 +5401,16 @@
       </c>
       <c r="C123" s="3" t="n"/>
       <c r="D123" s="3" t="n"/>
-      <c r="E123" s="3" t="n"/>
-      <c r="F123" s="3" t="n"/>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G123" s="3" t="n"/>
       <c r="H123" s="3" t="n"/>
       <c r="I123" s="3" t="n"/>
@@ -5298,6 +5429,7 @@
       <c r="V123" s="3" t="n"/>
       <c r="W123" s="3" t="n"/>
       <c r="X123" s="3" t="n"/>
+      <c r="Y123" s="3" t="n"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5310,23 +5442,27 @@
       </c>
       <c r="C124" s="3" t="n"/>
       <c r="D124" s="3" t="n"/>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>K,PV</t>
-        </is>
-      </c>
-      <c r="F124" s="3" t="n"/>
+      <c r="E124" s="3" t="n"/>
+      <c r="F124" s="3" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
       <c r="G124" s="3" t="inlineStr">
         <is>
+          <t>BIJZIN</t>
+        </is>
+      </c>
+      <c r="H124" s="3" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="H124" s="3" t="inlineStr">
+      <c r="I124" s="3" t="inlineStr">
         <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="I124" s="3" t="n"/>
       <c r="J124" s="3" t="n"/>
       <c r="K124" s="3" t="n"/>
       <c r="L124" s="3" t="n"/>
@@ -5342,6 +5478,7 @@
       <c r="V124" s="3" t="n"/>
       <c r="W124" s="3" t="n"/>
       <c r="X124" s="3" t="n"/>
+      <c r="Y124" s="3" t="n"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5349,7 +5486,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C125" s="3" t="n"/>
@@ -5374,6 +5511,7 @@
       <c r="V125" s="3" t="n"/>
       <c r="W125" s="3" t="n"/>
       <c r="X125" s="3" t="n"/>
+      <c r="Y125" s="3" t="n"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5381,7 +5519,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C126" s="3" t="n"/>
@@ -5406,6 +5544,7 @@
       <c r="V126" s="3" t="n"/>
       <c r="W126" s="3" t="n"/>
       <c r="X126" s="3" t="n"/>
+      <c r="Y126" s="3" t="n"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5413,7 +5552,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C127" s="3" t="n"/>
@@ -5438,6 +5577,7 @@
       <c r="V127" s="3" t="n"/>
       <c r="W127" s="3" t="n"/>
       <c r="X127" s="3" t="n"/>
+      <c r="Y127" s="3" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -5448,67 +5588,67 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr"/>
+      <c r="D128" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D128" s="2" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>als</t>
         </is>
       </c>
-      <c r="E128" s="2" t="inlineStr">
+      <c r="F128" s="2" t="inlineStr">
         <is>
           <t>ze</t>
         </is>
       </c>
-      <c r="F128" s="2" t="inlineStr">
+      <c r="G128" s="2" t="inlineStr">
         <is>
           <t>ouder</t>
         </is>
       </c>
-      <c r="G128" s="2" t="inlineStr">
+      <c r="H128" s="2" t="inlineStr">
         <is>
           <t>worden</t>
         </is>
       </c>
-      <c r="H128" s="2" t="inlineStr">
+      <c r="I128" s="2" t="inlineStr">
         <is>
           <t>dan</t>
         </is>
       </c>
-      <c r="I128" s="2" t="inlineStr">
+      <c r="J128" s="2" t="inlineStr">
         <is>
           <t>gaan</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
+      <c r="K128" s="2" t="inlineStr">
         <is>
           <t>ze</t>
         </is>
       </c>
-      <c r="K128" s="2" t="inlineStr">
+      <c r="L128" s="2" t="inlineStr">
         <is>
           <t>naar</t>
         </is>
       </c>
-      <c r="L128" s="2" t="inlineStr">
+      <c r="M128" s="2" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="M128" s="2" t="inlineStr">
+      <c r="N128" s="2" t="inlineStr">
         <is>
           <t>andere</t>
         </is>
       </c>
-      <c r="N128" s="2" t="inlineStr">
+      <c r="O128" s="2" t="inlineStr">
         <is>
           <t>groep</t>
         </is>
       </c>
-      <c r="O128" s="2" t="n"/>
       <c r="P128" s="2" t="n"/>
       <c r="Q128" s="2" t="n"/>
       <c r="R128" s="2" t="n"/>
@@ -5518,6 +5658,7 @@
       <c r="V128" s="2" t="n"/>
       <c r="W128" s="2" t="n"/>
       <c r="X128" s="2" t="n"/>
+      <c r="Y128" s="2" t="n"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5525,7 +5666,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C129" s="3" t="n"/>
@@ -5550,6 +5691,7 @@
       <c r="V129" s="3" t="n"/>
       <c r="W129" s="3" t="n"/>
       <c r="X129" s="3" t="n"/>
+      <c r="Y129" s="3" t="n"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5582,6 +5724,7 @@
       <c r="V130" s="3" t="n"/>
       <c r="W130" s="3" t="n"/>
       <c r="X130" s="3" t="n"/>
+      <c r="Y130" s="3" t="n"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5595,40 +5738,40 @@
       <c r="C131" s="3" t="n"/>
       <c r="D131" s="3" t="n"/>
       <c r="E131" s="3" t="n"/>
-      <c r="F131" s="3" t="inlineStr">
+      <c r="F131" s="3" t="n"/>
+      <c r="G131" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G131" s="3" t="inlineStr">
+      <c r="H131" s="3" t="inlineStr">
         <is>
           <t>K,PV</t>
         </is>
       </c>
-      <c r="H131" s="3" t="inlineStr">
+      <c r="I131" s="3" t="inlineStr">
         <is>
           <t>BIJZIN</t>
         </is>
       </c>
-      <c r="I131" s="3" t="inlineStr">
+      <c r="J131" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="J131" s="3" t="n"/>
       <c r="K131" s="3" t="n"/>
       <c r="L131" s="3" t="n"/>
-      <c r="M131" s="3" t="inlineStr">
+      <c r="M131" s="3" t="n"/>
+      <c r="N131" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="N131" s="3" t="inlineStr">
+      <c r="O131" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="O131" s="3" t="n"/>
       <c r="P131" s="3" t="n"/>
       <c r="Q131" s="3" t="n"/>
       <c r="R131" s="3" t="n"/>
@@ -5638,6 +5781,7 @@
       <c r="V131" s="3" t="n"/>
       <c r="W131" s="3" t="n"/>
       <c r="X131" s="3" t="n"/>
+      <c r="Y131" s="3" t="n"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5645,7 +5789,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C132" s="3" t="n"/>
@@ -5670,6 +5814,7 @@
       <c r="V132" s="3" t="n"/>
       <c r="W132" s="3" t="n"/>
       <c r="X132" s="3" t="n"/>
+      <c r="Y132" s="3" t="n"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5677,7 +5822,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C133" s="3" t="n"/>
@@ -5702,6 +5847,7 @@
       <c r="V133" s="3" t="n"/>
       <c r="W133" s="3" t="n"/>
       <c r="X133" s="3" t="n"/>
+      <c r="Y133" s="3" t="n"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5709,7 +5855,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C134" s="3" t="n"/>
@@ -5734,6 +5880,7 @@
       <c r="V134" s="3" t="n"/>
       <c r="W134" s="3" t="n"/>
       <c r="X134" s="3" t="n"/>
+      <c r="Y134" s="3" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -5744,72 +5891,72 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr"/>
+      <c r="D135" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D135" s="2" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="E135" s="2" t="inlineStr">
+      <c r="F135" s="2" t="inlineStr">
         <is>
           <t>ook</t>
         </is>
       </c>
-      <c r="F135" s="2" t="inlineStr">
+      <c r="G135" s="2" t="inlineStr">
         <is>
           <t>leuk</t>
         </is>
       </c>
-      <c r="G135" s="2" t="inlineStr">
+      <c r="H135" s="2" t="inlineStr">
         <is>
           <t>kon</t>
         </is>
       </c>
-      <c r="H135" s="2" t="inlineStr">
+      <c r="I135" s="2" t="inlineStr">
         <is>
           <t>kinderen</t>
         </is>
       </c>
-      <c r="I135" s="2" t="inlineStr">
+      <c r="J135" s="2" t="inlineStr">
         <is>
           <t>zo</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
+      <c r="K135" s="2" t="inlineStr">
         <is>
           <t>gezellig</t>
         </is>
       </c>
-      <c r="K135" s="2" t="inlineStr">
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>zo</t>
         </is>
       </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="M135" s="2" t="inlineStr">
         <is>
           <t>lief</t>
         </is>
       </c>
-      <c r="M135" s="2" t="inlineStr">
+      <c r="N135" s="2" t="inlineStr">
         <is>
           <t>zo</t>
         </is>
       </c>
-      <c r="N135" s="2" t="inlineStr">
+      <c r="O135" s="2" t="inlineStr">
         <is>
           <t>fijn</t>
         </is>
       </c>
-      <c r="O135" s="2" t="inlineStr">
+      <c r="P135" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="P135" s="2" t="n"/>
       <c r="Q135" s="2" t="n"/>
       <c r="R135" s="2" t="n"/>
       <c r="S135" s="2" t="n"/>
@@ -5818,6 +5965,7 @@
       <c r="V135" s="2" t="n"/>
       <c r="W135" s="2" t="n"/>
       <c r="X135" s="2" t="n"/>
+      <c r="Y135" s="2" t="n"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5825,7 +5973,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C136" s="3" t="n"/>
@@ -5850,6 +5998,7 @@
       <c r="V136" s="3" t="n"/>
       <c r="W136" s="3" t="n"/>
       <c r="X136" s="3" t="n"/>
+      <c r="Y136" s="3" t="n"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5872,12 +6021,12 @@
       <c r="L137" s="3" t="n"/>
       <c r="M137" s="3" t="n"/>
       <c r="N137" s="3" t="n"/>
-      <c r="O137" s="3" t="inlineStr">
+      <c r="O137" s="3" t="n"/>
+      <c r="P137" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P137" s="3" t="n"/>
       <c r="Q137" s="3" t="n"/>
       <c r="R137" s="3" t="n"/>
       <c r="S137" s="3" t="n"/>
@@ -5886,6 +6035,7 @@
       <c r="V137" s="3" t="n"/>
       <c r="W137" s="3" t="n"/>
       <c r="X137" s="3" t="n"/>
+      <c r="Y137" s="3" t="n"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5897,28 +6047,28 @@
         </is>
       </c>
       <c r="C138" s="3" t="n"/>
-      <c r="D138" s="3" t="inlineStr">
+      <c r="D138" s="3" t="n"/>
+      <c r="E138" s="3" t="inlineStr">
         <is>
           <t>K,PV</t>
         </is>
       </c>
-      <c r="E138" s="3" t="n"/>
-      <c r="F138" s="3" t="inlineStr">
+      <c r="F138" s="3" t="n"/>
+      <c r="G138" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G138" s="3" t="inlineStr">
+      <c r="H138" s="3" t="inlineStr">
         <is>
           <t>M,PV</t>
         </is>
       </c>
-      <c r="H138" s="3" t="inlineStr">
+      <c r="I138" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="I138" s="3" t="n"/>
       <c r="J138" s="3" t="n"/>
       <c r="K138" s="3" t="n"/>
       <c r="L138" s="3" t="n"/>
@@ -5934,6 +6084,7 @@
       <c r="V138" s="3" t="n"/>
       <c r="W138" s="3" t="n"/>
       <c r="X138" s="3" t="n"/>
+      <c r="Y138" s="3" t="n"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5941,7 +6092,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C139" s="3" t="n"/>
@@ -5966,6 +6117,7 @@
       <c r="V139" s="3" t="n"/>
       <c r="W139" s="3" t="n"/>
       <c r="X139" s="3" t="n"/>
+      <c r="Y139" s="3" t="n"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5973,7 +6125,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C140" s="3" t="n"/>
@@ -5998,6 +6150,7 @@
       <c r="V140" s="3" t="n"/>
       <c r="W140" s="3" t="n"/>
       <c r="X140" s="3" t="n"/>
+      <c r="Y140" s="3" t="n"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6005,7 +6158,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C141" s="3" t="n"/>
@@ -6030,6 +6183,7 @@
       <c r="V141" s="3" t="n"/>
       <c r="W141" s="3" t="n"/>
       <c r="X141" s="3" t="n"/>
+      <c r="Y141" s="3" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -6040,42 +6194,42 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr"/>
+      <c r="D142" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="D142" s="2" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="E142" s="2" t="inlineStr">
+      <c r="F142" s="2" t="inlineStr">
         <is>
           <t>ook</t>
         </is>
       </c>
-      <c r="F142" s="2" t="inlineStr">
+      <c r="G142" s="2" t="inlineStr">
         <is>
           <t>ouders</t>
         </is>
       </c>
-      <c r="G142" s="2" t="inlineStr">
+      <c r="H142" s="2" t="inlineStr">
         <is>
           <t>heel</t>
         </is>
       </c>
-      <c r="H142" s="2" t="inlineStr">
+      <c r="I142" s="2" t="inlineStr">
         <is>
           <t>goed</t>
         </is>
       </c>
-      <c r="I142" s="2" t="inlineStr">
+      <c r="J142" s="2" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="J142" s="2" t="n"/>
       <c r="K142" s="2" t="n"/>
       <c r="L142" s="2" t="n"/>
       <c r="M142" s="2" t="n"/>
@@ -6090,6 +6244,7 @@
       <c r="V142" s="2" t="n"/>
       <c r="W142" s="2" t="n"/>
       <c r="X142" s="2" t="n"/>
+      <c r="Y142" s="2" t="n"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6097,7 +6252,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C143" s="3" t="n"/>
@@ -6122,6 +6277,7 @@
       <c r="V143" s="3" t="n"/>
       <c r="W143" s="3" t="n"/>
       <c r="X143" s="3" t="n"/>
+      <c r="Y143" s="3" t="n"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6132,12 +6288,12 @@
           <t>MLU</t>
         </is>
       </c>
-      <c r="C144" s="3" t="inlineStr">
+      <c r="C144" s="3" t="n"/>
+      <c r="D144" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D144" s="3" t="n"/>
       <c r="E144" s="3" t="n"/>
       <c r="F144" s="3" t="n"/>
       <c r="G144" s="3" t="n"/>
@@ -6158,6 +6314,7 @@
       <c r="V144" s="3" t="n"/>
       <c r="W144" s="3" t="n"/>
       <c r="X144" s="3" t="n"/>
+      <c r="Y144" s="3" t="n"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6171,23 +6328,23 @@
       <c r="C145" s="3" t="n"/>
       <c r="D145" s="3" t="n"/>
       <c r="E145" s="3" t="n"/>
-      <c r="F145" s="3" t="inlineStr">
+      <c r="F145" s="3" t="n"/>
+      <c r="G145" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G145" s="3" t="n"/>
-      <c r="H145" s="3" t="inlineStr">
+      <c r="H145" s="3" t="n"/>
+      <c r="I145" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I145" s="3" t="inlineStr">
+      <c r="J145" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J145" s="3" t="n"/>
       <c r="K145" s="3" t="n"/>
       <c r="L145" s="3" t="n"/>
       <c r="M145" s="3" t="n"/>
@@ -6202,6 +6359,7 @@
       <c r="V145" s="3" t="n"/>
       <c r="W145" s="3" t="n"/>
       <c r="X145" s="3" t="n"/>
+      <c r="Y145" s="3" t="n"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6209,7 +6367,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C146" s="3" t="n"/>
@@ -6234,6 +6392,7 @@
       <c r="V146" s="3" t="n"/>
       <c r="W146" s="3" t="n"/>
       <c r="X146" s="3" t="n"/>
+      <c r="Y146" s="3" t="n"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6241,7 +6400,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C147" s="3" t="n"/>
@@ -6266,6 +6425,7 @@
       <c r="V147" s="3" t="n"/>
       <c r="W147" s="3" t="n"/>
       <c r="X147" s="3" t="n"/>
+      <c r="Y147" s="3" t="n"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6273,7 +6433,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C148" s="3" t="n"/>
@@ -6298,6 +6458,7 @@
       <c r="V148" s="3" t="n"/>
       <c r="W148" s="3" t="n"/>
       <c r="X148" s="3" t="n"/>
+      <c r="Y148" s="3" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -6308,27 +6469,27 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr"/>
+      <c r="D149" s="2" t="inlineStr">
         <is>
           <t>ki</t>
         </is>
       </c>
-      <c r="D149" s="2" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>kinderen</t>
         </is>
       </c>
-      <c r="E149" s="2" t="inlineStr">
+      <c r="F149" s="2" t="inlineStr">
         <is>
           <t>worden</t>
         </is>
       </c>
-      <c r="F149" s="2" t="inlineStr">
+      <c r="G149" s="2" t="inlineStr">
         <is>
           <t>gebracht</t>
         </is>
       </c>
-      <c r="G149" s="2" t="n"/>
       <c r="H149" s="2" t="n"/>
       <c r="I149" s="2" t="n"/>
       <c r="J149" s="2" t="n"/>
@@ -6346,6 +6507,7 @@
       <c r="V149" s="2" t="n"/>
       <c r="W149" s="2" t="n"/>
       <c r="X149" s="2" t="n"/>
+      <c r="Y149" s="2" t="n"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6353,15 +6515,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
-        </is>
-      </c>
-      <c r="C150" s="3" t="inlineStr">
+          <t>Samplegrootte</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="n"/>
+      <c r="D150" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D150" s="3" t="n"/>
       <c r="E150" s="3" t="n"/>
       <c r="F150" s="3" t="n"/>
       <c r="G150" s="3" t="n"/>
@@ -6382,6 +6544,7 @@
       <c r="V150" s="3" t="n"/>
       <c r="W150" s="3" t="n"/>
       <c r="X150" s="3" t="n"/>
+      <c r="Y150" s="3" t="n"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6414,6 +6577,7 @@
       <c r="V151" s="3" t="n"/>
       <c r="W151" s="3" t="n"/>
       <c r="X151" s="3" t="n"/>
+      <c r="Y151" s="3" t="n"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6425,22 +6589,22 @@
         </is>
       </c>
       <c r="C152" s="3" t="n"/>
-      <c r="D152" s="3" t="inlineStr">
+      <c r="D152" s="3" t="n"/>
+      <c r="E152" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="E152" s="3" t="inlineStr">
+      <c r="F152" s="3" t="inlineStr">
         <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="F152" s="3" t="inlineStr">
+      <c r="G152" s="3" t="inlineStr">
         <is>
           <t>LEX</t>
         </is>
       </c>
-      <c r="G152" s="3" t="n"/>
       <c r="H152" s="3" t="n"/>
       <c r="I152" s="3" t="n"/>
       <c r="J152" s="3" t="n"/>
@@ -6458,6 +6622,7 @@
       <c r="V152" s="3" t="n"/>
       <c r="W152" s="3" t="n"/>
       <c r="X152" s="3" t="n"/>
+      <c r="Y152" s="3" t="n"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6465,7 +6630,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C153" s="3" t="n"/>
@@ -6490,6 +6655,7 @@
       <c r="V153" s="3" t="n"/>
       <c r="W153" s="3" t="n"/>
       <c r="X153" s="3" t="n"/>
+      <c r="Y153" s="3" t="n"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6497,7 +6663,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C154" s="3" t="n"/>
@@ -6522,6 +6688,7 @@
       <c r="V154" s="3" t="n"/>
       <c r="W154" s="3" t="n"/>
       <c r="X154" s="3" t="n"/>
+      <c r="Y154" s="3" t="n"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6529,7 +6696,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C155" s="3" t="n"/>
@@ -6554,6 +6721,7 @@
       <c r="V155" s="3" t="n"/>
       <c r="W155" s="3" t="n"/>
       <c r="X155" s="3" t="n"/>
+      <c r="Y155" s="3" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -6564,57 +6732,57 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
+      <c r="C156" s="2" t="inlineStr"/>
+      <c r="D156" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D156" s="2" t="inlineStr">
+      <c r="E156" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="E156" s="2" t="inlineStr">
+      <c r="F156" s="2" t="inlineStr">
         <is>
           <t>dan</t>
         </is>
       </c>
-      <c r="F156" s="2" t="inlineStr">
+      <c r="G156" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="G156" s="2" t="inlineStr">
+      <c r="H156" s="2" t="inlineStr">
         <is>
           <t>het</t>
         </is>
       </c>
-      <c r="H156" s="2" t="inlineStr">
+      <c r="I156" s="2" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="I156" s="2" t="inlineStr">
+      <c r="J156" s="2" t="inlineStr">
         <is>
           <t>goed</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
+      <c r="K156" s="2" t="inlineStr">
         <is>
           <t>met</t>
         </is>
       </c>
-      <c r="K156" s="2" t="inlineStr">
+      <c r="L156" s="2" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="L156" s="2" t="inlineStr">
+      <c r="M156" s="2" t="inlineStr">
         <is>
           <t>ouders</t>
         </is>
       </c>
-      <c r="M156" s="2" t="n"/>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="2" t="n"/>
       <c r="P156" s="2" t="n"/>
@@ -6626,6 +6794,7 @@
       <c r="V156" s="2" t="n"/>
       <c r="W156" s="2" t="n"/>
       <c r="X156" s="2" t="n"/>
+      <c r="Y156" s="2" t="n"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6633,16 +6802,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C157" s="3" t="n"/>
-      <c r="D157" s="3" t="inlineStr">
+      <c r="D157" s="3" t="n"/>
+      <c r="E157" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E157" s="3" t="n"/>
       <c r="F157" s="3" t="n"/>
       <c r="G157" s="3" t="n"/>
       <c r="H157" s="3" t="n"/>
@@ -6662,6 +6831,7 @@
       <c r="V157" s="3" t="n"/>
       <c r="W157" s="3" t="n"/>
       <c r="X157" s="3" t="n"/>
+      <c r="Y157" s="3" t="n"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6694,6 +6864,7 @@
       <c r="V158" s="3" t="n"/>
       <c r="W158" s="3" t="n"/>
       <c r="X158" s="3" t="n"/>
+      <c r="Y158" s="3" t="n"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6707,30 +6878,30 @@
       <c r="C159" s="3" t="n"/>
       <c r="D159" s="3" t="n"/>
       <c r="E159" s="3" t="n"/>
-      <c r="F159" s="3" t="inlineStr">
+      <c r="F159" s="3" t="n"/>
+      <c r="G159" s="3" t="inlineStr">
         <is>
           <t>K,PV</t>
         </is>
       </c>
-      <c r="G159" s="3" t="n"/>
-      <c r="H159" s="3" t="inlineStr">
+      <c r="H159" s="3" t="n"/>
+      <c r="I159" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="I159" s="3" t="inlineStr">
+      <c r="J159" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J159" s="3" t="n"/>
       <c r="K159" s="3" t="n"/>
-      <c r="L159" s="3" t="inlineStr">
+      <c r="L159" s="3" t="n"/>
+      <c r="M159" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="M159" s="3" t="n"/>
       <c r="N159" s="3" t="n"/>
       <c r="O159" s="3" t="n"/>
       <c r="P159" s="3" t="n"/>
@@ -6742,6 +6913,7 @@
       <c r="V159" s="3" t="n"/>
       <c r="W159" s="3" t="n"/>
       <c r="X159" s="3" t="n"/>
+      <c r="Y159" s="3" t="n"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6749,7 +6921,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C160" s="3" t="n"/>
@@ -6774,6 +6946,7 @@
       <c r="V160" s="3" t="n"/>
       <c r="W160" s="3" t="n"/>
       <c r="X160" s="3" t="n"/>
+      <c r="Y160" s="3" t="n"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6781,7 +6954,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C161" s="3" t="n"/>
@@ -6806,6 +6979,7 @@
       <c r="V161" s="3" t="n"/>
       <c r="W161" s="3" t="n"/>
       <c r="X161" s="3" t="n"/>
+      <c r="Y161" s="3" t="n"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6813,7 +6987,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C162" s="3" t="n"/>
@@ -6838,6 +7012,7 @@
       <c r="V162" s="3" t="n"/>
       <c r="W162" s="3" t="n"/>
       <c r="X162" s="3" t="n"/>
+      <c r="Y162" s="3" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -6848,47 +7023,47 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr"/>
+      <c r="D163" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D163" s="2" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>ook</t>
         </is>
       </c>
-      <c r="E163" s="2" t="inlineStr">
+      <c r="F163" s="2" t="inlineStr">
         <is>
           <t>eind</t>
         </is>
       </c>
-      <c r="F163" s="2" t="inlineStr">
+      <c r="G163" s="2" t="inlineStr">
         <is>
           <t>van</t>
         </is>
       </c>
-      <c r="G163" s="2" t="inlineStr">
+      <c r="H163" s="2" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="H163" s="2" t="inlineStr">
+      <c r="I163" s="2" t="inlineStr">
         <is>
           <t>middag</t>
         </is>
       </c>
-      <c r="I163" s="2" t="inlineStr">
+      <c r="J163" s="2" t="inlineStr">
         <is>
           <t>weer</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
+      <c r="K163" s="2" t="inlineStr">
         <is>
           <t>opgehaald</t>
         </is>
       </c>
-      <c r="K163" s="2" t="n"/>
       <c r="L163" s="2" t="n"/>
       <c r="M163" s="2" t="n"/>
       <c r="N163" s="2" t="n"/>
@@ -6902,6 +7077,7 @@
       <c r="V163" s="2" t="n"/>
       <c r="W163" s="2" t="n"/>
       <c r="X163" s="2" t="n"/>
+      <c r="Y163" s="2" t="n"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6909,7 +7085,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C164" s="3" t="n"/>
@@ -6934,6 +7110,7 @@
       <c r="V164" s="3" t="n"/>
       <c r="W164" s="3" t="n"/>
       <c r="X164" s="3" t="n"/>
+      <c r="Y164" s="3" t="n"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6966,6 +7143,7 @@
       <c r="V165" s="3" t="n"/>
       <c r="W165" s="3" t="n"/>
       <c r="X165" s="3" t="n"/>
+      <c r="Y165" s="3" t="n"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6980,23 +7158,27 @@
       <c r="D166" s="3" t="n"/>
       <c r="E166" s="3" t="inlineStr">
         <is>
+          <t>DEL PV</t>
+        </is>
+      </c>
+      <c r="F166" s="3" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F166" s="3" t="n"/>
       <c r="G166" s="3" t="n"/>
-      <c r="H166" s="3" t="inlineStr">
+      <c r="H166" s="3" t="n"/>
+      <c r="I166" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="I166" s="3" t="n"/>
-      <c r="J166" s="3" t="inlineStr">
+      <c r="J166" s="3" t="n"/>
+      <c r="K166" s="3" t="inlineStr">
         <is>
           <t>LEX</t>
         </is>
       </c>
-      <c r="K166" s="3" t="n"/>
       <c r="L166" s="3" t="n"/>
       <c r="M166" s="3" t="n"/>
       <c r="N166" s="3" t="n"/>
@@ -7010,6 +7192,7 @@
       <c r="V166" s="3" t="n"/>
       <c r="W166" s="3" t="n"/>
       <c r="X166" s="3" t="n"/>
+      <c r="Y166" s="3" t="n"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7017,7 +7200,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C167" s="3" t="n"/>
@@ -7042,6 +7225,7 @@
       <c r="V167" s="3" t="n"/>
       <c r="W167" s="3" t="n"/>
       <c r="X167" s="3" t="n"/>
+      <c r="Y167" s="3" t="n"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7049,7 +7233,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C168" s="3" t="n"/>
@@ -7074,6 +7258,7 @@
       <c r="V168" s="3" t="n"/>
       <c r="W168" s="3" t="n"/>
       <c r="X168" s="3" t="n"/>
+      <c r="Y168" s="3" t="n"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7081,15 +7266,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C169" s="3" t="n"/>
-      <c r="D169" s="3" t="inlineStr">
-        <is>
-          <t>DEL PV</t>
-        </is>
-      </c>
+      <c r="D169" s="3" t="n"/>
       <c r="E169" s="3" t="n"/>
       <c r="F169" s="3" t="n"/>
       <c r="G169" s="3" t="n"/>
@@ -7110,6 +7291,7 @@
       <c r="V169" s="3" t="n"/>
       <c r="W169" s="3" t="n"/>
       <c r="X169" s="3" t="n"/>
+      <c r="Y169" s="3" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -7120,37 +7302,37 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr"/>
+      <c r="D170" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D170" s="2" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
         <is>
           <t>kinderen</t>
         </is>
       </c>
-      <c r="E170" s="2" t="inlineStr">
+      <c r="F170" s="2" t="inlineStr">
         <is>
           <t>zijn</t>
         </is>
       </c>
-      <c r="F170" s="2" t="inlineStr">
+      <c r="G170" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="G170" s="2" t="inlineStr">
+      <c r="H170" s="2" t="inlineStr">
         <is>
           <t>fijn</t>
         </is>
       </c>
-      <c r="H170" s="2" t="inlineStr">
+      <c r="I170" s="2" t="inlineStr">
         <is>
           <t>lief</t>
         </is>
       </c>
-      <c r="I170" s="2" t="n"/>
       <c r="J170" s="2" t="n"/>
       <c r="K170" s="2" t="n"/>
       <c r="L170" s="2" t="n"/>
@@ -7166,6 +7348,7 @@
       <c r="V170" s="2" t="n"/>
       <c r="W170" s="2" t="n"/>
       <c r="X170" s="2" t="n"/>
+      <c r="Y170" s="2" t="n"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -7173,7 +7356,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C171" s="3" t="n"/>
@@ -7198,6 +7381,7 @@
       <c r="V171" s="3" t="n"/>
       <c r="W171" s="3" t="n"/>
       <c r="X171" s="3" t="n"/>
+      <c r="Y171" s="3" t="n"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7211,12 +7395,12 @@
       <c r="C172" s="3" t="n"/>
       <c r="D172" s="3" t="n"/>
       <c r="E172" s="3" t="n"/>
-      <c r="F172" s="3" t="inlineStr">
+      <c r="F172" s="3" t="n"/>
+      <c r="G172" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G172" s="3" t="n"/>
       <c r="H172" s="3" t="n"/>
       <c r="I172" s="3" t="n"/>
       <c r="J172" s="3" t="n"/>
@@ -7234,6 +7418,7 @@
       <c r="V172" s="3" t="n"/>
       <c r="W172" s="3" t="n"/>
       <c r="X172" s="3" t="n"/>
+      <c r="Y172" s="3" t="n"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7245,24 +7430,24 @@
         </is>
       </c>
       <c r="C173" s="3" t="n"/>
-      <c r="D173" s="3" t="inlineStr">
+      <c r="D173" s="3" t="n"/>
+      <c r="E173" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="E173" s="3" t="inlineStr">
+      <c r="F173" s="3" t="inlineStr">
         <is>
           <t>K,PV</t>
         </is>
       </c>
-      <c r="F173" s="3" t="n"/>
       <c r="G173" s="3" t="n"/>
-      <c r="H173" s="3" t="inlineStr">
+      <c r="H173" s="3" t="n"/>
+      <c r="I173" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I173" s="3" t="n"/>
       <c r="J173" s="3" t="n"/>
       <c r="K173" s="3" t="n"/>
       <c r="L173" s="3" t="n"/>
@@ -7278,6 +7463,7 @@
       <c r="V173" s="3" t="n"/>
       <c r="W173" s="3" t="n"/>
       <c r="X173" s="3" t="n"/>
+      <c r="Y173" s="3" t="n"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7285,7 +7471,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C174" s="3" t="n"/>
@@ -7310,6 +7496,7 @@
       <c r="V174" s="3" t="n"/>
       <c r="W174" s="3" t="n"/>
       <c r="X174" s="3" t="n"/>
+      <c r="Y174" s="3" t="n"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7317,7 +7504,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C175" s="3" t="n"/>
@@ -7342,6 +7529,7 @@
       <c r="V175" s="3" t="n"/>
       <c r="W175" s="3" t="n"/>
       <c r="X175" s="3" t="n"/>
+      <c r="Y175" s="3" t="n"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7349,7 +7537,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C176" s="3" t="n"/>
@@ -7374,6 +7562,7 @@
       <c r="V176" s="3" t="n"/>
       <c r="W176" s="3" t="n"/>
       <c r="X176" s="3" t="n"/>
+      <c r="Y176" s="3" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -7384,62 +7573,62 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr"/>
+      <c r="D177" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D177" s="2" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
         <is>
           <t>voelen</t>
         </is>
       </c>
-      <c r="E177" s="2" t="inlineStr">
+      <c r="F177" s="2" t="inlineStr">
         <is>
           <t>zich</t>
         </is>
       </c>
-      <c r="F177" s="2" t="inlineStr">
+      <c r="G177" s="2" t="inlineStr">
         <is>
           <t>wel</t>
         </is>
       </c>
-      <c r="G177" s="2" t="inlineStr">
+      <c r="H177" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="H177" s="2" t="inlineStr">
+      <c r="I177" s="2" t="inlineStr">
         <is>
           <t>voelen</t>
         </is>
       </c>
-      <c r="I177" s="2" t="inlineStr">
+      <c r="J177" s="2" t="inlineStr">
         <is>
           <t>zich</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
+      <c r="K177" s="2" t="inlineStr">
         <is>
           <t>wel</t>
         </is>
       </c>
-      <c r="K177" s="2" t="inlineStr">
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>gelukkig</t>
         </is>
       </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="M177" s="2" t="inlineStr">
         <is>
           <t>bij</t>
         </is>
       </c>
-      <c r="M177" s="2" t="inlineStr">
+      <c r="N177" s="2" t="inlineStr">
         <is>
           <t>ons</t>
         </is>
       </c>
-      <c r="N177" s="2" t="n"/>
       <c r="O177" s="2" t="n"/>
       <c r="P177" s="2" t="n"/>
       <c r="Q177" s="2" t="n"/>
@@ -7450,6 +7639,7 @@
       <c r="V177" s="2" t="n"/>
       <c r="W177" s="2" t="n"/>
       <c r="X177" s="2" t="n"/>
+      <c r="Y177" s="2" t="n"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7457,19 +7647,19 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C178" s="3" t="n"/>
       <c r="D178" s="3" t="n"/>
       <c r="E178" s="3" t="n"/>
       <c r="F178" s="3" t="n"/>
-      <c r="G178" s="3" t="inlineStr">
+      <c r="G178" s="3" t="n"/>
+      <c r="H178" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H178" s="3" t="n"/>
       <c r="I178" s="3" t="n"/>
       <c r="J178" s="3" t="n"/>
       <c r="K178" s="3" t="n"/>
@@ -7486,6 +7676,7 @@
       <c r="V178" s="3" t="n"/>
       <c r="W178" s="3" t="n"/>
       <c r="X178" s="3" t="n"/>
+      <c r="Y178" s="3" t="n"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7497,22 +7688,22 @@
         </is>
       </c>
       <c r="C179" s="3" t="n"/>
-      <c r="D179" s="3" t="inlineStr">
+      <c r="D179" s="3" t="n"/>
+      <c r="E179" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E179" s="3" t="inlineStr">
+      <c r="F179" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F179" s="3" t="inlineStr">
+      <c r="G179" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G179" s="3" t="n"/>
       <c r="H179" s="3" t="n"/>
       <c r="I179" s="3" t="n"/>
       <c r="J179" s="3" t="n"/>
@@ -7530,6 +7721,7 @@
       <c r="V179" s="3" t="n"/>
       <c r="W179" s="3" t="n"/>
       <c r="X179" s="3" t="n"/>
+      <c r="Y179" s="3" t="n"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7541,20 +7733,20 @@
         </is>
       </c>
       <c r="C180" s="3" t="n"/>
-      <c r="D180" s="3" t="inlineStr">
+      <c r="D180" s="3" t="n"/>
+      <c r="E180" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="E180" s="3" t="n"/>
       <c r="F180" s="3" t="n"/>
       <c r="G180" s="3" t="n"/>
-      <c r="H180" s="3" t="inlineStr">
+      <c r="H180" s="3" t="n"/>
+      <c r="I180" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="I180" s="3" t="n"/>
       <c r="J180" s="3" t="n"/>
       <c r="K180" s="3" t="n"/>
       <c r="L180" s="3" t="n"/>
@@ -7570,6 +7762,7 @@
       <c r="V180" s="3" t="n"/>
       <c r="W180" s="3" t="n"/>
       <c r="X180" s="3" t="n"/>
+      <c r="Y180" s="3" t="n"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -7577,7 +7770,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C181" s="3" t="n"/>
@@ -7602,6 +7795,7 @@
       <c r="V181" s="3" t="n"/>
       <c r="W181" s="3" t="n"/>
       <c r="X181" s="3" t="n"/>
+      <c r="Y181" s="3" t="n"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7609,7 +7803,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C182" s="3" t="n"/>
@@ -7634,6 +7828,7 @@
       <c r="V182" s="3" t="n"/>
       <c r="W182" s="3" t="n"/>
       <c r="X182" s="3" t="n"/>
+      <c r="Y182" s="3" t="n"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -7641,7 +7836,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C183" s="3" t="n"/>
@@ -7666,6 +7861,7 @@
       <c r="V183" s="3" t="n"/>
       <c r="W183" s="3" t="n"/>
       <c r="X183" s="3" t="n"/>
+      <c r="Y183" s="3" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -7676,17 +7872,17 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr"/>
+      <c r="D184" s="2" t="inlineStr">
         <is>
           <t>spelen</t>
         </is>
       </c>
-      <c r="D184" s="2" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
         <is>
           <t>graag</t>
         </is>
       </c>
-      <c r="E184" s="2" t="n"/>
       <c r="F184" s="2" t="n"/>
       <c r="G184" s="2" t="n"/>
       <c r="H184" s="2" t="n"/>
@@ -7706,6 +7902,7 @@
       <c r="V184" s="2" t="n"/>
       <c r="W184" s="2" t="n"/>
       <c r="X184" s="2" t="n"/>
+      <c r="Y184" s="2" t="n"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -7713,7 +7910,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C185" s="3" t="n"/>
@@ -7738,6 +7935,7 @@
       <c r="V185" s="3" t="n"/>
       <c r="W185" s="3" t="n"/>
       <c r="X185" s="3" t="n"/>
+      <c r="Y185" s="3" t="n"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -7770,6 +7968,7 @@
       <c r="V186" s="3" t="n"/>
       <c r="W186" s="3" t="n"/>
       <c r="X186" s="3" t="n"/>
+      <c r="Y186" s="3" t="n"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7780,12 +7979,12 @@
           <t>Taalmaat</t>
         </is>
       </c>
-      <c r="C187" s="3" t="inlineStr">
+      <c r="C187" s="3" t="n"/>
+      <c r="D187" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="D187" s="3" t="n"/>
       <c r="E187" s="3" t="n"/>
       <c r="F187" s="3" t="n"/>
       <c r="G187" s="3" t="n"/>
@@ -7806,6 +8005,7 @@
       <c r="V187" s="3" t="n"/>
       <c r="W187" s="3" t="n"/>
       <c r="X187" s="3" t="n"/>
+      <c r="Y187" s="3" t="n"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7813,7 +8013,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C188" s="3" t="n"/>
@@ -7838,6 +8038,7 @@
       <c r="V188" s="3" t="n"/>
       <c r="W188" s="3" t="n"/>
       <c r="X188" s="3" t="n"/>
+      <c r="Y188" s="3" t="n"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7845,7 +8046,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C189" s="3" t="n"/>
@@ -7870,6 +8071,7 @@
       <c r="V189" s="3" t="n"/>
       <c r="W189" s="3" t="n"/>
       <c r="X189" s="3" t="n"/>
+      <c r="Y189" s="3" t="n"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -7877,7 +8079,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C190" s="3" t="n"/>
@@ -7902,6 +8104,7 @@
       <c r="V190" s="3" t="n"/>
       <c r="W190" s="3" t="n"/>
       <c r="X190" s="3" t="n"/>
+      <c r="Y190" s="3" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -7912,42 +8115,42 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C191" s="2" t="inlineStr">
+      <c r="C191" s="2" t="inlineStr"/>
+      <c r="D191" s="2" t="inlineStr">
         <is>
           <t>oo</t>
         </is>
       </c>
-      <c r="D191" s="2" t="inlineStr">
+      <c r="E191" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="E191" s="2" t="inlineStr">
+      <c r="F191" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="F191" s="2" t="inlineStr">
+      <c r="G191" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="G191" s="2" t="inlineStr">
+      <c r="H191" s="2" t="inlineStr">
         <is>
           <t>werk</t>
         </is>
       </c>
-      <c r="H191" s="2" t="inlineStr">
+      <c r="I191" s="2" t="inlineStr">
         <is>
           <t>drie</t>
         </is>
       </c>
-      <c r="I191" s="2" t="inlineStr">
+      <c r="J191" s="2" t="inlineStr">
         <is>
           <t>dagen</t>
         </is>
       </c>
-      <c r="J191" s="2" t="n"/>
       <c r="K191" s="2" t="n"/>
       <c r="L191" s="2" t="n"/>
       <c r="M191" s="2" t="n"/>
@@ -7962,6 +8165,7 @@
       <c r="V191" s="2" t="n"/>
       <c r="W191" s="2" t="n"/>
       <c r="X191" s="2" t="n"/>
+      <c r="Y191" s="2" t="n"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7969,25 +8173,25 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
-        </is>
-      </c>
-      <c r="C192" s="3" t="inlineStr">
+          <t>Samplegrootte</t>
+        </is>
+      </c>
+      <c r="C192" s="3" t="n"/>
+      <c r="D192" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D192" s="3" t="inlineStr">
+      <c r="E192" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E192" s="3" t="inlineStr">
+      <c r="F192" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F192" s="3" t="n"/>
       <c r="G192" s="3" t="n"/>
       <c r="H192" s="3" t="n"/>
       <c r="I192" s="3" t="n"/>
@@ -8006,6 +8210,7 @@
       <c r="V192" s="3" t="n"/>
       <c r="W192" s="3" t="n"/>
       <c r="X192" s="3" t="n"/>
+      <c r="Y192" s="3" t="n"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -8038,6 +8243,7 @@
       <c r="V193" s="3" t="n"/>
       <c r="W193" s="3" t="n"/>
       <c r="X193" s="3" t="n"/>
+      <c r="Y193" s="3" t="n"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8052,18 +8258,18 @@
       <c r="D194" s="3" t="n"/>
       <c r="E194" s="3" t="n"/>
       <c r="F194" s="3" t="n"/>
-      <c r="G194" s="3" t="inlineStr">
+      <c r="G194" s="3" t="n"/>
+      <c r="H194" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="H194" s="3" t="n"/>
-      <c r="I194" s="3" t="inlineStr">
+      <c r="I194" s="3" t="n"/>
+      <c r="J194" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J194" s="3" t="n"/>
       <c r="K194" s="3" t="n"/>
       <c r="L194" s="3" t="n"/>
       <c r="M194" s="3" t="n"/>
@@ -8078,6 +8284,7 @@
       <c r="V194" s="3" t="n"/>
       <c r="W194" s="3" t="n"/>
       <c r="X194" s="3" t="n"/>
+      <c r="Y194" s="3" t="n"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -8085,7 +8292,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C195" s="3" t="n"/>
@@ -8110,6 +8317,7 @@
       <c r="V195" s="3" t="n"/>
       <c r="W195" s="3" t="n"/>
       <c r="X195" s="3" t="n"/>
+      <c r="Y195" s="3" t="n"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -8117,7 +8325,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C196" s="3" t="n"/>
@@ -8142,6 +8350,7 @@
       <c r="V196" s="3" t="n"/>
       <c r="W196" s="3" t="n"/>
       <c r="X196" s="3" t="n"/>
+      <c r="Y196" s="3" t="n"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -8149,7 +8358,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C197" s="3" t="n"/>
@@ -8174,6 +8383,7 @@
       <c r="V197" s="3" t="n"/>
       <c r="W197" s="3" t="n"/>
       <c r="X197" s="3" t="n"/>
+      <c r="Y197" s="3" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -8184,88 +8394,89 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr"/>
+      <c r="D198" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="D198" s="2" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>begin</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="G198" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="G198" s="2" t="inlineStr">
+      <c r="H198" s="2" t="inlineStr">
         <is>
           <t>om</t>
         </is>
       </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="I198" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="I198" s="2" t="inlineStr">
+      <c r="J198" s="2" t="inlineStr">
         <is>
           <t>half</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
+      <c r="K198" s="2" t="inlineStr">
         <is>
           <t>acht</t>
         </is>
       </c>
-      <c r="K198" s="2" t="inlineStr">
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>tot</t>
         </is>
       </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="M198" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="M198" s="2" t="inlineStr">
+      <c r="N198" s="2" t="inlineStr">
         <is>
           <t>denk</t>
         </is>
       </c>
-      <c r="N198" s="2" t="inlineStr">
+      <c r="O198" s="2" t="inlineStr">
         <is>
           <t>tot</t>
         </is>
       </c>
-      <c r="O198" s="2" t="inlineStr">
+      <c r="P198" s="2" t="inlineStr">
         <is>
           <t>zes</t>
         </is>
       </c>
-      <c r="P198" s="2" t="inlineStr">
+      <c r="Q198" s="2" t="inlineStr">
         <is>
           <t>uur</t>
         </is>
       </c>
-      <c r="Q198" s="2" t="inlineStr">
+      <c r="R198" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="R198" s="2" t="n"/>
       <c r="S198" s="2" t="n"/>
       <c r="T198" s="2" t="n"/>
       <c r="U198" s="2" t="n"/>
       <c r="V198" s="2" t="n"/>
       <c r="W198" s="2" t="n"/>
       <c r="X198" s="2" t="n"/>
+      <c r="Y198" s="2" t="n"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8273,7 +8484,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C199" s="3" t="n"/>
@@ -8281,12 +8492,12 @@
       <c r="E199" s="3" t="n"/>
       <c r="F199" s="3" t="n"/>
       <c r="G199" s="3" t="n"/>
-      <c r="H199" s="3" t="inlineStr">
+      <c r="H199" s="3" t="n"/>
+      <c r="I199" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I199" s="3" t="n"/>
       <c r="J199" s="3" t="n"/>
       <c r="K199" s="3" t="n"/>
       <c r="L199" s="3" t="n"/>
@@ -8302,6 +8513,7 @@
       <c r="V199" s="3" t="n"/>
       <c r="W199" s="3" t="n"/>
       <c r="X199" s="3" t="n"/>
+      <c r="Y199" s="3" t="n"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -8312,12 +8524,12 @@
           <t>MLU</t>
         </is>
       </c>
-      <c r="C200" s="3" t="inlineStr">
+      <c r="C200" s="3" t="n"/>
+      <c r="D200" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D200" s="3" t="n"/>
       <c r="E200" s="3" t="n"/>
       <c r="F200" s="3" t="n"/>
       <c r="G200" s="3" t="n"/>
@@ -8330,18 +8542,19 @@
       <c r="N200" s="3" t="n"/>
       <c r="O200" s="3" t="n"/>
       <c r="P200" s="3" t="n"/>
-      <c r="Q200" s="3" t="inlineStr">
+      <c r="Q200" s="3" t="n"/>
+      <c r="R200" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="R200" s="3" t="n"/>
       <c r="S200" s="3" t="n"/>
       <c r="T200" s="3" t="n"/>
       <c r="U200" s="3" t="n"/>
       <c r="V200" s="3" t="n"/>
       <c r="W200" s="3" t="n"/>
       <c r="X200" s="3" t="n"/>
+      <c r="Y200" s="3" t="n"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -8354,30 +8567,26 @@
       </c>
       <c r="C201" s="3" t="n"/>
       <c r="D201" s="3" t="n"/>
-      <c r="E201" s="3" t="inlineStr">
+      <c r="E201" s="3" t="n"/>
+      <c r="F201" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="F201" s="3" t="n"/>
       <c r="G201" s="3" t="n"/>
       <c r="H201" s="3" t="n"/>
       <c r="I201" s="3" t="n"/>
       <c r="J201" s="3" t="n"/>
       <c r="K201" s="3" t="n"/>
       <c r="L201" s="3" t="n"/>
-      <c r="M201" s="3" t="inlineStr">
+      <c r="M201" s="3" t="n"/>
+      <c r="N201" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="N201" s="3" t="n"/>
       <c r="O201" s="3" t="n"/>
-      <c r="P201" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="P201" s="3" t="n"/>
       <c r="Q201" s="3" t="n"/>
       <c r="R201" s="3" t="n"/>
       <c r="S201" s="3" t="n"/>
@@ -8386,6 +8595,7 @@
       <c r="V201" s="3" t="n"/>
       <c r="W201" s="3" t="n"/>
       <c r="X201" s="3" t="n"/>
+      <c r="Y201" s="3" t="n"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -8393,7 +8603,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C202" s="3" t="n"/>
@@ -8418,6 +8628,7 @@
       <c r="V202" s="3" t="n"/>
       <c r="W202" s="3" t="n"/>
       <c r="X202" s="3" t="n"/>
+      <c r="Y202" s="3" t="n"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -8425,7 +8636,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C203" s="3" t="n"/>
@@ -8450,6 +8661,7 @@
       <c r="V203" s="3" t="n"/>
       <c r="W203" s="3" t="n"/>
       <c r="X203" s="3" t="n"/>
+      <c r="Y203" s="3" t="n"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8457,7 +8669,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C204" s="3" t="n"/>
@@ -8482,6 +8694,7 @@
       <c r="V204" s="3" t="n"/>
       <c r="W204" s="3" t="n"/>
       <c r="X204" s="3" t="n"/>
+      <c r="Y204" s="3" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -8492,22 +8705,22 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" s="2" t="inlineStr"/>
+      <c r="D205" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="D205" s="2" t="inlineStr">
+      <c r="E205" s="2" t="inlineStr">
         <is>
           <t>toevallig</t>
         </is>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="F205" s="2" t="inlineStr">
         <is>
           <t>hierachter</t>
         </is>
       </c>
-      <c r="F205" s="2" t="n"/>
       <c r="G205" s="2" t="n"/>
       <c r="H205" s="2" t="n"/>
       <c r="I205" s="2" t="n"/>
@@ -8526,6 +8739,7 @@
       <c r="V205" s="2" t="n"/>
       <c r="W205" s="2" t="n"/>
       <c r="X205" s="2" t="n"/>
+      <c r="Y205" s="2" t="n"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8533,7 +8747,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C206" s="3" t="n"/>
@@ -8558,6 +8772,7 @@
       <c r="V206" s="3" t="n"/>
       <c r="W206" s="3" t="n"/>
       <c r="X206" s="3" t="n"/>
+      <c r="Y206" s="3" t="n"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -8568,12 +8783,12 @@
           <t>MLU</t>
         </is>
       </c>
-      <c r="C207" s="3" t="inlineStr">
+      <c r="C207" s="3" t="n"/>
+      <c r="D207" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D207" s="3" t="n"/>
       <c r="E207" s="3" t="n"/>
       <c r="F207" s="3" t="n"/>
       <c r="G207" s="3" t="n"/>
@@ -8594,6 +8809,7 @@
       <c r="V207" s="3" t="n"/>
       <c r="W207" s="3" t="n"/>
       <c r="X207" s="3" t="n"/>
+      <c r="Y207" s="3" t="n"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8626,6 +8842,7 @@
       <c r="V208" s="3" t="n"/>
       <c r="W208" s="3" t="n"/>
       <c r="X208" s="3" t="n"/>
+      <c r="Y208" s="3" t="n"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -8633,7 +8850,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C209" s="3" t="n"/>
@@ -8658,6 +8875,7 @@
       <c r="V209" s="3" t="n"/>
       <c r="W209" s="3" t="n"/>
       <c r="X209" s="3" t="n"/>
+      <c r="Y209" s="3" t="n"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -8665,7 +8883,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C210" s="3" t="n"/>
@@ -8690,6 +8908,7 @@
       <c r="V210" s="3" t="n"/>
       <c r="W210" s="3" t="n"/>
       <c r="X210" s="3" t="n"/>
+      <c r="Y210" s="3" t="n"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -8697,7 +8916,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C211" s="3" t="n"/>
@@ -8722,6 +8941,7 @@
       <c r="V211" s="3" t="n"/>
       <c r="W211" s="3" t="n"/>
       <c r="X211" s="3" t="n"/>
+      <c r="Y211" s="3" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -8732,27 +8952,27 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr"/>
+      <c r="D212" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="D212" s="2" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>kinderen</t>
         </is>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>met</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="G212" s="2" t="inlineStr">
         <is>
           <t>beperking</t>
         </is>
       </c>
-      <c r="G212" s="2" t="n"/>
       <c r="H212" s="2" t="n"/>
       <c r="I212" s="2" t="n"/>
       <c r="J212" s="2" t="n"/>
@@ -8770,6 +8990,7 @@
       <c r="V212" s="2" t="n"/>
       <c r="W212" s="2" t="n"/>
       <c r="X212" s="2" t="n"/>
+      <c r="Y212" s="2" t="n"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -8777,15 +8998,15 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
-        </is>
-      </c>
-      <c r="C213" s="3" t="inlineStr">
+          <t>Samplegrootte</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="n"/>
+      <c r="D213" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D213" s="3" t="n"/>
       <c r="E213" s="3" t="n"/>
       <c r="F213" s="3" t="n"/>
       <c r="G213" s="3" t="n"/>
@@ -8806,6 +9027,7 @@
       <c r="V213" s="3" t="n"/>
       <c r="W213" s="3" t="n"/>
       <c r="X213" s="3" t="n"/>
+      <c r="Y213" s="3" t="n"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -8838,6 +9060,7 @@
       <c r="V214" s="3" t="n"/>
       <c r="W214" s="3" t="n"/>
       <c r="X214" s="3" t="n"/>
+      <c r="Y214" s="3" t="n"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -8849,18 +9072,18 @@
         </is>
       </c>
       <c r="C215" s="3" t="n"/>
-      <c r="D215" s="3" t="inlineStr">
+      <c r="D215" s="3" t="n"/>
+      <c r="E215" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="E215" s="3" t="n"/>
-      <c r="F215" s="3" t="inlineStr">
+      <c r="F215" s="3" t="n"/>
+      <c r="G215" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G215" s="3" t="n"/>
       <c r="H215" s="3" t="n"/>
       <c r="I215" s="3" t="n"/>
       <c r="J215" s="3" t="n"/>
@@ -8878,6 +9101,7 @@
       <c r="V215" s="3" t="n"/>
       <c r="W215" s="3" t="n"/>
       <c r="X215" s="3" t="n"/>
+      <c r="Y215" s="3" t="n"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -8885,7 +9109,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C216" s="3" t="n"/>
@@ -8910,6 +9134,7 @@
       <c r="V216" s="3" t="n"/>
       <c r="W216" s="3" t="n"/>
       <c r="X216" s="3" t="n"/>
+      <c r="Y216" s="3" t="n"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -8917,7 +9142,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C217" s="3" t="n"/>
@@ -8942,6 +9167,7 @@
       <c r="V217" s="3" t="n"/>
       <c r="W217" s="3" t="n"/>
       <c r="X217" s="3" t="n"/>
+      <c r="Y217" s="3" t="n"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8949,7 +9175,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C218" s="3" t="n"/>
@@ -8974,6 +9200,7 @@
       <c r="V218" s="3" t="n"/>
       <c r="W218" s="3" t="n"/>
       <c r="X218" s="3" t="n"/>
+      <c r="Y218" s="3" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -8984,37 +9211,37 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr"/>
+      <c r="D219" s="2" t="inlineStr">
         <is>
           <t>dat</t>
         </is>
       </c>
-      <c r="D219" s="2" t="inlineStr">
+      <c r="E219" s="2" t="inlineStr">
         <is>
           <t>was</t>
         </is>
       </c>
-      <c r="E219" s="2" t="inlineStr">
+      <c r="F219" s="2" t="inlineStr">
         <is>
           <t>dicht</t>
         </is>
       </c>
-      <c r="F219" s="2" t="inlineStr">
+      <c r="G219" s="2" t="inlineStr">
         <is>
           <t>bij</t>
         </is>
       </c>
-      <c r="G219" s="2" t="inlineStr">
+      <c r="H219" s="2" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>werkinstelling1</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="n"/>
+      <c r="I219" s="2" t="inlineStr">
+        <is>
+          <t>rijnstate</t>
+        </is>
+      </c>
       <c r="J219" s="2" t="n"/>
       <c r="K219" s="2" t="n"/>
       <c r="L219" s="2" t="n"/>
@@ -9030,6 +9257,7 @@
       <c r="V219" s="2" t="n"/>
       <c r="W219" s="2" t="n"/>
       <c r="X219" s="2" t="n"/>
+      <c r="Y219" s="2" t="n"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -9037,7 +9265,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C220" s="3" t="n"/>
@@ -9062,6 +9290,7 @@
       <c r="V220" s="3" t="n"/>
       <c r="W220" s="3" t="n"/>
       <c r="X220" s="3" t="n"/>
+      <c r="Y220" s="3" t="n"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -9094,6 +9323,7 @@
       <c r="V221" s="3" t="n"/>
       <c r="W221" s="3" t="n"/>
       <c r="X221" s="3" t="n"/>
+      <c r="Y221" s="3" t="n"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -9105,24 +9335,24 @@
         </is>
       </c>
       <c r="C222" s="3" t="n"/>
-      <c r="D222" s="3" t="inlineStr">
+      <c r="D222" s="3" t="n"/>
+      <c r="E222" s="3" t="inlineStr">
         <is>
           <t>K,PV</t>
         </is>
       </c>
-      <c r="E222" s="3" t="inlineStr">
+      <c r="F222" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F222" s="3" t="n"/>
       <c r="G222" s="3" t="n"/>
-      <c r="H222" s="3" t="inlineStr">
+      <c r="H222" s="3" t="n"/>
+      <c r="I222" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="I222" s="3" t="n"/>
       <c r="J222" s="3" t="n"/>
       <c r="K222" s="3" t="n"/>
       <c r="L222" s="3" t="n"/>
@@ -9138,6 +9368,7 @@
       <c r="V222" s="3" t="n"/>
       <c r="W222" s="3" t="n"/>
       <c r="X222" s="3" t="n"/>
+      <c r="Y222" s="3" t="n"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -9145,7 +9376,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C223" s="3" t="n"/>
@@ -9170,6 +9401,7 @@
       <c r="V223" s="3" t="n"/>
       <c r="W223" s="3" t="n"/>
       <c r="X223" s="3" t="n"/>
+      <c r="Y223" s="3" t="n"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -9177,7 +9409,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C224" s="3" t="n"/>
@@ -9202,6 +9434,7 @@
       <c r="V224" s="3" t="n"/>
       <c r="W224" s="3" t="n"/>
       <c r="X224" s="3" t="n"/>
+      <c r="Y224" s="3" t="n"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -9209,7 +9442,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C225" s="3" t="n"/>
@@ -9234,6 +9467,7 @@
       <c r="V225" s="3" t="n"/>
       <c r="W225" s="3" t="n"/>
       <c r="X225" s="3" t="n"/>
+      <c r="Y225" s="3" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -9244,37 +9478,37 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr"/>
+      <c r="D226" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="D226" s="2" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="E226" s="2" t="inlineStr">
+      <c r="F226" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="F226" s="2" t="inlineStr">
+      <c r="G226" s="2" t="inlineStr">
         <is>
           <t>weet</t>
         </is>
       </c>
-      <c r="G226" s="2" t="inlineStr">
+      <c r="H226" s="2" t="inlineStr">
         <is>
           <t>het</t>
         </is>
       </c>
-      <c r="H226" s="2" t="inlineStr">
+      <c r="I226" s="2" t="inlineStr">
         <is>
           <t>niet</t>
         </is>
       </c>
-      <c r="I226" s="2" t="n"/>
       <c r="J226" s="2" t="n"/>
       <c r="K226" s="2" t="n"/>
       <c r="L226" s="2" t="n"/>
@@ -9290,6 +9524,7 @@
       <c r="V226" s="2" t="n"/>
       <c r="W226" s="2" t="n"/>
       <c r="X226" s="2" t="n"/>
+      <c r="Y226" s="2" t="n"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -9297,15 +9532,15 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
-        </is>
-      </c>
-      <c r="C227" s="3" t="inlineStr">
+          <t>Samplegrootte</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="n"/>
+      <c r="D227" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D227" s="3" t="n"/>
       <c r="E227" s="3" t="n"/>
       <c r="F227" s="3" t="n"/>
       <c r="G227" s="3" t="n"/>
@@ -9326,6 +9561,7 @@
       <c r="V227" s="3" t="n"/>
       <c r="W227" s="3" t="n"/>
       <c r="X227" s="3" t="n"/>
+      <c r="Y227" s="3" t="n"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -9337,12 +9573,12 @@
         </is>
       </c>
       <c r="C228" s="3" t="n"/>
-      <c r="D228" s="3" t="inlineStr">
+      <c r="D228" s="3" t="n"/>
+      <c r="E228" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E228" s="3" t="n"/>
       <c r="F228" s="3" t="n"/>
       <c r="G228" s="3" t="n"/>
       <c r="H228" s="3" t="n"/>
@@ -9362,6 +9598,7 @@
       <c r="V228" s="3" t="n"/>
       <c r="W228" s="3" t="n"/>
       <c r="X228" s="3" t="n"/>
+      <c r="Y228" s="3" t="n"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -9375,12 +9612,12 @@
       <c r="C229" s="3" t="n"/>
       <c r="D229" s="3" t="n"/>
       <c r="E229" s="3" t="n"/>
-      <c r="F229" s="3" t="inlineStr">
+      <c r="F229" s="3" t="n"/>
+      <c r="G229" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="G229" s="3" t="n"/>
       <c r="H229" s="3" t="n"/>
       <c r="I229" s="3" t="n"/>
       <c r="J229" s="3" t="n"/>
@@ -9398,6 +9635,7 @@
       <c r="V229" s="3" t="n"/>
       <c r="W229" s="3" t="n"/>
       <c r="X229" s="3" t="n"/>
+      <c r="Y229" s="3" t="n"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9405,7 +9643,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C230" s="3" t="n"/>
@@ -9430,6 +9668,7 @@
       <c r="V230" s="3" t="n"/>
       <c r="W230" s="3" t="n"/>
       <c r="X230" s="3" t="n"/>
+      <c r="Y230" s="3" t="n"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -9437,7 +9676,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C231" s="3" t="n"/>
@@ -9462,6 +9701,7 @@
       <c r="V231" s="3" t="n"/>
       <c r="W231" s="3" t="n"/>
       <c r="X231" s="3" t="n"/>
+      <c r="Y231" s="3" t="n"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -9469,7 +9709,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C232" s="3" t="n"/>
@@ -9494,6 +9734,7 @@
       <c r="V232" s="3" t="n"/>
       <c r="W232" s="3" t="n"/>
       <c r="X232" s="3" t="n"/>
+      <c r="Y232" s="3" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -9504,47 +9745,47 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr"/>
+      <c r="D233" s="2" t="inlineStr">
         <is>
           <t>dat</t>
         </is>
       </c>
-      <c r="D233" s="2" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>jammer</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="G233" s="2" t="inlineStr">
         <is>
           <t>van</t>
         </is>
       </c>
-      <c r="G233" s="2" t="inlineStr">
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>nu</t>
         </is>
       </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="I233" s="2" t="inlineStr">
         <is>
           <t>op</t>
         </is>
       </c>
-      <c r="I233" s="2" t="inlineStr">
+      <c r="J233" s="2" t="inlineStr">
         <is>
           <t>dit</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
+      <c r="K233" s="2" t="inlineStr">
         <is>
           <t>moment</t>
         </is>
       </c>
-      <c r="K233" s="2" t="n"/>
       <c r="L233" s="2" t="n"/>
       <c r="M233" s="2" t="n"/>
       <c r="N233" s="2" t="n"/>
@@ -9558,6 +9799,7 @@
       <c r="V233" s="2" t="n"/>
       <c r="W233" s="2" t="n"/>
       <c r="X233" s="2" t="n"/>
+      <c r="Y233" s="2" t="n"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -9565,7 +9807,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C234" s="3" t="n"/>
@@ -9590,6 +9832,7 @@
       <c r="V234" s="3" t="n"/>
       <c r="W234" s="3" t="n"/>
       <c r="X234" s="3" t="n"/>
+      <c r="Y234" s="3" t="n"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -9622,6 +9865,7 @@
       <c r="V235" s="3" t="n"/>
       <c r="W235" s="3" t="n"/>
       <c r="X235" s="3" t="n"/>
+      <c r="Y235" s="3" t="n"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9633,26 +9877,26 @@
         </is>
       </c>
       <c r="C236" s="3" t="n"/>
-      <c r="D236" s="3" t="inlineStr">
+      <c r="D236" s="3" t="n"/>
+      <c r="E236" s="3" t="inlineStr">
         <is>
           <t>K,PV</t>
         </is>
       </c>
-      <c r="E236" s="3" t="inlineStr">
+      <c r="F236" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F236" s="3" t="n"/>
       <c r="G236" s="3" t="n"/>
       <c r="H236" s="3" t="n"/>
       <c r="I236" s="3" t="n"/>
-      <c r="J236" s="3" t="inlineStr">
+      <c r="J236" s="3" t="n"/>
+      <c r="K236" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="K236" s="3" t="n"/>
       <c r="L236" s="3" t="n"/>
       <c r="M236" s="3" t="n"/>
       <c r="N236" s="3" t="n"/>
@@ -9666,6 +9910,7 @@
       <c r="V236" s="3" t="n"/>
       <c r="W236" s="3" t="n"/>
       <c r="X236" s="3" t="n"/>
+      <c r="Y236" s="3" t="n"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9673,7 +9918,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C237" s="3" t="n"/>
@@ -9698,6 +9943,7 @@
       <c r="V237" s="3" t="n"/>
       <c r="W237" s="3" t="n"/>
       <c r="X237" s="3" t="n"/>
+      <c r="Y237" s="3" t="n"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9705,7 +9951,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C238" s="3" t="n"/>
@@ -9730,6 +9976,7 @@
       <c r="V238" s="3" t="n"/>
       <c r="W238" s="3" t="n"/>
       <c r="X238" s="3" t="n"/>
+      <c r="Y238" s="3" t="n"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -9737,7 +9984,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C239" s="3" t="n"/>
@@ -9762,6 +10009,7 @@
       <c r="V239" s="3" t="n"/>
       <c r="W239" s="3" t="n"/>
       <c r="X239" s="3" t="n"/>
+      <c r="Y239" s="3" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -9772,27 +10020,27 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr"/>
+      <c r="D240" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="D240" s="2" t="inlineStr">
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="F240" s="2" t="inlineStr">
         <is>
           <t>herken</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
+      <c r="G240" s="2" t="inlineStr">
         <is>
           <t>het</t>
         </is>
       </c>
-      <c r="G240" s="2" t="n"/>
       <c r="H240" s="2" t="n"/>
       <c r="I240" s="2" t="n"/>
       <c r="J240" s="2" t="n"/>
@@ -9810,6 +10058,7 @@
       <c r="V240" s="2" t="n"/>
       <c r="W240" s="2" t="n"/>
       <c r="X240" s="2" t="n"/>
+      <c r="Y240" s="2" t="n"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -9817,7 +10066,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C241" s="3" t="n"/>
@@ -9842,6 +10091,7 @@
       <c r="V241" s="3" t="n"/>
       <c r="W241" s="3" t="n"/>
       <c r="X241" s="3" t="n"/>
+      <c r="Y241" s="3" t="n"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -9852,12 +10102,12 @@
           <t>MLU</t>
         </is>
       </c>
-      <c r="C242" s="3" t="inlineStr">
+      <c r="C242" s="3" t="n"/>
+      <c r="D242" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D242" s="3" t="n"/>
       <c r="E242" s="3" t="n"/>
       <c r="F242" s="3" t="n"/>
       <c r="G242" s="3" t="n"/>
@@ -9878,6 +10128,7 @@
       <c r="V242" s="3" t="n"/>
       <c r="W242" s="3" t="n"/>
       <c r="X242" s="3" t="n"/>
+      <c r="Y242" s="3" t="n"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -9890,12 +10141,12 @@
       </c>
       <c r="C243" s="3" t="n"/>
       <c r="D243" s="3" t="n"/>
-      <c r="E243" s="3" t="inlineStr">
+      <c r="E243" s="3" t="n"/>
+      <c r="F243" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="F243" s="3" t="n"/>
       <c r="G243" s="3" t="n"/>
       <c r="H243" s="3" t="n"/>
       <c r="I243" s="3" t="n"/>
@@ -9914,6 +10165,7 @@
       <c r="V243" s="3" t="n"/>
       <c r="W243" s="3" t="n"/>
       <c r="X243" s="3" t="n"/>
+      <c r="Y243" s="3" t="n"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -9921,7 +10173,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C244" s="3" t="n"/>
@@ -9946,6 +10198,7 @@
       <c r="V244" s="3" t="n"/>
       <c r="W244" s="3" t="n"/>
       <c r="X244" s="3" t="n"/>
+      <c r="Y244" s="3" t="n"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -9953,7 +10206,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C245" s="3" t="n"/>
@@ -9978,6 +10231,7 @@
       <c r="V245" s="3" t="n"/>
       <c r="W245" s="3" t="n"/>
       <c r="X245" s="3" t="n"/>
+      <c r="Y245" s="3" t="n"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -9985,7 +10239,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C246" s="3" t="n"/>
@@ -10010,6 +10264,7 @@
       <c r="V246" s="3" t="n"/>
       <c r="W246" s="3" t="n"/>
       <c r="X246" s="3" t="n"/>
+      <c r="Y246" s="3" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -10020,37 +10275,37 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr"/>
+      <c r="D247" s="2" t="inlineStr">
         <is>
           <t>wauw</t>
         </is>
       </c>
-      <c r="D247" s="2" t="inlineStr">
+      <c r="E247" s="2" t="inlineStr">
         <is>
           <t>daar</t>
         </is>
       </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="F247" s="2" t="inlineStr">
         <is>
           <t>ben</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
+      <c r="G247" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="G247" s="2" t="inlineStr">
+      <c r="H247" s="2" t="inlineStr">
         <is>
           <t>veel</t>
         </is>
       </c>
-      <c r="H247" s="2" t="inlineStr">
+      <c r="I247" s="2" t="inlineStr">
         <is>
           <t>geweest</t>
         </is>
       </c>
-      <c r="I247" s="2" t="n"/>
       <c r="J247" s="2" t="n"/>
       <c r="K247" s="2" t="n"/>
       <c r="L247" s="2" t="n"/>
@@ -10066,6 +10321,7 @@
       <c r="V247" s="2" t="n"/>
       <c r="W247" s="2" t="n"/>
       <c r="X247" s="2" t="n"/>
+      <c r="Y247" s="2" t="n"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -10073,15 +10329,15 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
-        </is>
-      </c>
-      <c r="C248" s="3" t="inlineStr">
+          <t>Samplegrootte</t>
+        </is>
+      </c>
+      <c r="C248" s="3" t="n"/>
+      <c r="D248" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D248" s="3" t="n"/>
       <c r="E248" s="3" t="n"/>
       <c r="F248" s="3" t="n"/>
       <c r="G248" s="3" t="n"/>
@@ -10102,6 +10358,7 @@
       <c r="V248" s="3" t="n"/>
       <c r="W248" s="3" t="n"/>
       <c r="X248" s="3" t="n"/>
+      <c r="Y248" s="3" t="n"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -10134,6 +10391,7 @@
       <c r="V249" s="3" t="n"/>
       <c r="W249" s="3" t="n"/>
       <c r="X249" s="3" t="n"/>
+      <c r="Y249" s="3" t="n"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -10146,19 +10404,19 @@
       </c>
       <c r="C250" s="3" t="n"/>
       <c r="D250" s="3" t="n"/>
-      <c r="E250" s="3" t="inlineStr">
+      <c r="E250" s="3" t="n"/>
+      <c r="F250" s="3" t="inlineStr">
         <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="F250" s="3" t="n"/>
       <c r="G250" s="3" t="n"/>
-      <c r="H250" s="3" t="inlineStr">
+      <c r="H250" s="3" t="n"/>
+      <c r="I250" s="3" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I250" s="3" t="n"/>
       <c r="J250" s="3" t="n"/>
       <c r="K250" s="3" t="n"/>
       <c r="L250" s="3" t="n"/>
@@ -10174,6 +10432,7 @@
       <c r="V250" s="3" t="n"/>
       <c r="W250" s="3" t="n"/>
       <c r="X250" s="3" t="n"/>
+      <c r="Y250" s="3" t="n"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -10181,7 +10440,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C251" s="3" t="n"/>
@@ -10206,6 +10465,7 @@
       <c r="V251" s="3" t="n"/>
       <c r="W251" s="3" t="n"/>
       <c r="X251" s="3" t="n"/>
+      <c r="Y251" s="3" t="n"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -10213,7 +10473,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C252" s="3" t="n"/>
@@ -10238,6 +10498,7 @@
       <c r="V252" s="3" t="n"/>
       <c r="W252" s="3" t="n"/>
       <c r="X252" s="3" t="n"/>
+      <c r="Y252" s="3" t="n"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -10245,7 +10506,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C253" s="3" t="n"/>
@@ -10270,6 +10531,7 @@
       <c r="V253" s="3" t="n"/>
       <c r="W253" s="3" t="n"/>
       <c r="X253" s="3" t="n"/>
+      <c r="Y253" s="3" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -10280,27 +10542,27 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr"/>
+      <c r="D254" s="2" t="inlineStr">
         <is>
           <t>ook</t>
         </is>
       </c>
-      <c r="D254" s="2" t="inlineStr">
+      <c r="E254" s="2" t="inlineStr">
         <is>
           <t>hier</t>
         </is>
       </c>
-      <c r="E254" s="2" t="inlineStr">
+      <c r="F254" s="2" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="F254" s="2" t="inlineStr">
+      <c r="G254" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="G254" s="2" t="n"/>
       <c r="H254" s="2" t="n"/>
       <c r="I254" s="2" t="n"/>
       <c r="J254" s="2" t="n"/>
@@ -10318,6 +10580,7 @@
       <c r="V254" s="2" t="n"/>
       <c r="W254" s="2" t="n"/>
       <c r="X254" s="2" t="n"/>
+      <c r="Y254" s="2" t="n"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -10325,18 +10588,18 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C255" s="3" t="n"/>
       <c r="D255" s="3" t="n"/>
       <c r="E255" s="3" t="n"/>
-      <c r="F255" s="3" t="inlineStr">
+      <c r="F255" s="3" t="n"/>
+      <c r="G255" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G255" s="3" t="n"/>
       <c r="H255" s="3" t="n"/>
       <c r="I255" s="3" t="n"/>
       <c r="J255" s="3" t="n"/>
@@ -10354,6 +10617,7 @@
       <c r="V255" s="3" t="n"/>
       <c r="W255" s="3" t="n"/>
       <c r="X255" s="3" t="n"/>
+      <c r="Y255" s="3" t="n"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -10386,6 +10650,7 @@
       <c r="V256" s="3" t="n"/>
       <c r="W256" s="3" t="n"/>
       <c r="X256" s="3" t="n"/>
+      <c r="Y256" s="3" t="n"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -10418,6 +10683,7 @@
       <c r="V257" s="3" t="n"/>
       <c r="W257" s="3" t="n"/>
       <c r="X257" s="3" t="n"/>
+      <c r="Y257" s="3" t="n"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -10425,7 +10691,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C258" s="3" t="n"/>
@@ -10450,6 +10716,7 @@
       <c r="V258" s="3" t="n"/>
       <c r="W258" s="3" t="n"/>
       <c r="X258" s="3" t="n"/>
+      <c r="Y258" s="3" t="n"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -10457,7 +10724,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C259" s="3" t="n"/>
@@ -10482,6 +10749,7 @@
       <c r="V259" s="3" t="n"/>
       <c r="W259" s="3" t="n"/>
       <c r="X259" s="3" t="n"/>
+      <c r="Y259" s="3" t="n"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -10489,7 +10757,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C260" s="3" t="n"/>
@@ -10514,6 +10782,7 @@
       <c r="V260" s="3" t="n"/>
       <c r="W260" s="3" t="n"/>
       <c r="X260" s="3" t="n"/>
+      <c r="Y260" s="3" t="n"/>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -10524,37 +10793,37 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr"/>
+      <c r="D261" s="2" t="inlineStr">
         <is>
           <t>dat</t>
         </is>
       </c>
-      <c r="D261" s="2" t="inlineStr">
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>heb</t>
         </is>
       </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
+      <c r="G261" s="2" t="inlineStr">
         <is>
           <t>net</t>
         </is>
       </c>
-      <c r="G261" s="2" t="inlineStr">
+      <c r="H261" s="2" t="inlineStr">
         <is>
           <t>nog</t>
         </is>
       </c>
-      <c r="H261" s="2" t="inlineStr">
+      <c r="I261" s="2" t="inlineStr">
         <is>
           <t>gelezen</t>
         </is>
       </c>
-      <c r="I261" s="2" t="n"/>
       <c r="J261" s="2" t="n"/>
       <c r="K261" s="2" t="n"/>
       <c r="L261" s="2" t="n"/>
@@ -10570,6 +10839,7 @@
       <c r="V261" s="2" t="n"/>
       <c r="W261" s="2" t="n"/>
       <c r="X261" s="2" t="n"/>
+      <c r="Y261" s="2" t="n"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -10577,7 +10847,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C262" s="3" t="n"/>
@@ -10602,6 +10872,7 @@
       <c r="V262" s="3" t="n"/>
       <c r="W262" s="3" t="n"/>
       <c r="X262" s="3" t="n"/>
+      <c r="Y262" s="3" t="n"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -10634,6 +10905,7 @@
       <c r="V263" s="3" t="n"/>
       <c r="W263" s="3" t="n"/>
       <c r="X263" s="3" t="n"/>
+      <c r="Y263" s="3" t="n"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -10645,20 +10917,20 @@
         </is>
       </c>
       <c r="C264" s="3" t="n"/>
-      <c r="D264" s="3" t="inlineStr">
+      <c r="D264" s="3" t="n"/>
+      <c r="E264" s="3" t="inlineStr">
         <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="E264" s="3" t="n"/>
       <c r="F264" s="3" t="n"/>
       <c r="G264" s="3" t="n"/>
-      <c r="H264" s="3" t="inlineStr">
+      <c r="H264" s="3" t="n"/>
+      <c r="I264" s="3" t="inlineStr">
         <is>
           <t>LEX</t>
         </is>
       </c>
-      <c r="I264" s="3" t="n"/>
       <c r="J264" s="3" t="n"/>
       <c r="K264" s="3" t="n"/>
       <c r="L264" s="3" t="n"/>
@@ -10674,6 +10946,7 @@
       <c r="V264" s="3" t="n"/>
       <c r="W264" s="3" t="n"/>
       <c r="X264" s="3" t="n"/>
+      <c r="Y264" s="3" t="n"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -10681,7 +10954,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C265" s="3" t="n"/>
@@ -10706,6 +10979,7 @@
       <c r="V265" s="3" t="n"/>
       <c r="W265" s="3" t="n"/>
       <c r="X265" s="3" t="n"/>
+      <c r="Y265" s="3" t="n"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -10713,7 +10987,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C266" s="3" t="n"/>
@@ -10738,6 +11012,7 @@
       <c r="V266" s="3" t="n"/>
       <c r="W266" s="3" t="n"/>
       <c r="X266" s="3" t="n"/>
+      <c r="Y266" s="3" t="n"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -10745,7 +11020,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C267" s="3" t="n"/>
@@ -10770,6 +11045,7 @@
       <c r="V267" s="3" t="n"/>
       <c r="W267" s="3" t="n"/>
       <c r="X267" s="3" t="n"/>
+      <c r="Y267" s="3" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -10780,12 +11056,12 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>werkinstelling2</t>
-        </is>
-      </c>
-      <c r="D268" s="2" t="n"/>
+      <c r="C268" s="2" t="inlineStr"/>
+      <c r="D268" s="2" t="inlineStr">
+        <is>
+          <t>vogellanden</t>
+        </is>
+      </c>
       <c r="E268" s="2" t="n"/>
       <c r="F268" s="2" t="n"/>
       <c r="G268" s="2" t="n"/>
@@ -10806,6 +11082,7 @@
       <c r="V268" s="2" t="n"/>
       <c r="W268" s="2" t="n"/>
       <c r="X268" s="2" t="n"/>
+      <c r="Y268" s="2" t="n"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -10813,7 +11090,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C269" s="3" t="n"/>
@@ -10838,6 +11115,7 @@
       <c r="V269" s="3" t="n"/>
       <c r="W269" s="3" t="n"/>
       <c r="X269" s="3" t="n"/>
+      <c r="Y269" s="3" t="n"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -10870,6 +11148,7 @@
       <c r="V270" s="3" t="n"/>
       <c r="W270" s="3" t="n"/>
       <c r="X270" s="3" t="n"/>
+      <c r="Y270" s="3" t="n"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -10880,12 +11159,12 @@
           <t>Taalmaat</t>
         </is>
       </c>
-      <c r="C271" s="3" t="inlineStr">
+      <c r="C271" s="3" t="n"/>
+      <c r="D271" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D271" s="3" t="n"/>
       <c r="E271" s="3" t="n"/>
       <c r="F271" s="3" t="n"/>
       <c r="G271" s="3" t="n"/>
@@ -10906,6 +11185,7 @@
       <c r="V271" s="3" t="n"/>
       <c r="W271" s="3" t="n"/>
       <c r="X271" s="3" t="n"/>
+      <c r="Y271" s="3" t="n"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -10913,7 +11193,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C272" s="3" t="n"/>
@@ -10938,6 +11218,7 @@
       <c r="V272" s="3" t="n"/>
       <c r="W272" s="3" t="n"/>
       <c r="X272" s="3" t="n"/>
+      <c r="Y272" s="3" t="n"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -10945,7 +11226,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C273" s="3" t="n"/>
@@ -10970,6 +11251,7 @@
       <c r="V273" s="3" t="n"/>
       <c r="W273" s="3" t="n"/>
       <c r="X273" s="3" t="n"/>
+      <c r="Y273" s="3" t="n"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10977,7 +11259,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C274" s="3" t="n"/>
@@ -11002,6 +11284,7 @@
       <c r="V274" s="3" t="n"/>
       <c r="W274" s="3" t="n"/>
       <c r="X274" s="3" t="n"/>
+      <c r="Y274" s="3" t="n"/>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -11012,27 +11295,27 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr"/>
+      <c r="D275" s="2" t="inlineStr">
         <is>
           <t>veel</t>
         </is>
       </c>
-      <c r="D275" s="2" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>geweest</t>
         </is>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="F275" s="2" t="inlineStr">
         <is>
           <t>voor</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
+      <c r="G275" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="G275" s="2" t="n"/>
       <c r="H275" s="2" t="n"/>
       <c r="I275" s="2" t="n"/>
       <c r="J275" s="2" t="n"/>
@@ -11050,6 +11333,7 @@
       <c r="V275" s="2" t="n"/>
       <c r="W275" s="2" t="n"/>
       <c r="X275" s="2" t="n"/>
+      <c r="Y275" s="2" t="n"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -11057,18 +11341,18 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C276" s="3" t="n"/>
       <c r="D276" s="3" t="n"/>
       <c r="E276" s="3" t="n"/>
-      <c r="F276" s="3" t="inlineStr">
+      <c r="F276" s="3" t="n"/>
+      <c r="G276" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G276" s="3" t="n"/>
       <c r="H276" s="3" t="n"/>
       <c r="I276" s="3" t="n"/>
       <c r="J276" s="3" t="n"/>
@@ -11086,6 +11370,7 @@
       <c r="V276" s="3" t="n"/>
       <c r="W276" s="3" t="n"/>
       <c r="X276" s="3" t="n"/>
+      <c r="Y276" s="3" t="n"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -11107,7 +11392,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F277" s="3" t="n"/>
+      <c r="F277" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G277" s="3" t="n"/>
       <c r="H277" s="3" t="n"/>
       <c r="I277" s="3" t="n"/>
@@ -11126,6 +11415,7 @@
       <c r="V277" s="3" t="n"/>
       <c r="W277" s="3" t="n"/>
       <c r="X277" s="3" t="n"/>
+      <c r="Y277" s="3" t="n"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -11137,7 +11427,11 @@
         </is>
       </c>
       <c r="C278" s="3" t="n"/>
-      <c r="D278" s="3" t="n"/>
+      <c r="D278" s="3" t="inlineStr">
+        <is>
+          <t>DEL PV</t>
+        </is>
+      </c>
       <c r="E278" s="3" t="n"/>
       <c r="F278" s="3" t="n"/>
       <c r="G278" s="3" t="n"/>
@@ -11158,6 +11452,7 @@
       <c r="V278" s="3" t="n"/>
       <c r="W278" s="3" t="n"/>
       <c r="X278" s="3" t="n"/>
+      <c r="Y278" s="3" t="n"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -11165,7 +11460,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C279" s="3" t="n"/>
@@ -11190,6 +11485,7 @@
       <c r="V279" s="3" t="n"/>
       <c r="W279" s="3" t="n"/>
       <c r="X279" s="3" t="n"/>
+      <c r="Y279" s="3" t="n"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -11197,7 +11493,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C280" s="3" t="n"/>
@@ -11222,6 +11518,7 @@
       <c r="V280" s="3" t="n"/>
       <c r="W280" s="3" t="n"/>
       <c r="X280" s="3" t="n"/>
+      <c r="Y280" s="3" t="n"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -11229,15 +11526,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C281" s="3" t="n"/>
-      <c r="D281" s="3" t="inlineStr">
-        <is>
-          <t>DEL PV</t>
-        </is>
-      </c>
+      <c r="D281" s="3" t="n"/>
       <c r="E281" s="3" t="n"/>
       <c r="F281" s="3" t="n"/>
       <c r="G281" s="3" t="n"/>
@@ -11258,6 +11551,7 @@
       <c r="V281" s="3" t="n"/>
       <c r="W281" s="3" t="n"/>
       <c r="X281" s="3" t="n"/>
+      <c r="Y281" s="3" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -11268,32 +11562,32 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr"/>
+      <c r="D282" s="2" t="inlineStr">
         <is>
           <t>past</t>
         </is>
       </c>
-      <c r="D282" s="2" t="inlineStr">
+      <c r="E282" s="2" t="inlineStr">
         <is>
           <t>bij</t>
         </is>
       </c>
-      <c r="E282" s="2" t="inlineStr">
+      <c r="F282" s="2" t="inlineStr">
         <is>
           <t>mijn</t>
         </is>
       </c>
-      <c r="F282" s="2" t="inlineStr">
+      <c r="G282" s="2" t="inlineStr">
         <is>
           <t>werk</t>
         </is>
       </c>
-      <c r="G282" s="2" t="inlineStr">
+      <c r="H282" s="2" t="inlineStr">
         <is>
           <t>nu</t>
         </is>
       </c>
-      <c r="H282" s="2" t="n"/>
       <c r="I282" s="2" t="n"/>
       <c r="J282" s="2" t="n"/>
       <c r="K282" s="2" t="n"/>
@@ -11310,6 +11604,7 @@
       <c r="V282" s="2" t="n"/>
       <c r="W282" s="2" t="n"/>
       <c r="X282" s="2" t="n"/>
+      <c r="Y282" s="2" t="n"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -11317,7 +11612,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C283" s="3" t="n"/>
@@ -11342,6 +11637,7 @@
       <c r="V283" s="3" t="n"/>
       <c r="W283" s="3" t="n"/>
       <c r="X283" s="3" t="n"/>
+      <c r="Y283" s="3" t="n"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -11374,6 +11670,7 @@
       <c r="V284" s="3" t="n"/>
       <c r="W284" s="3" t="n"/>
       <c r="X284" s="3" t="n"/>
+      <c r="Y284" s="3" t="n"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -11384,19 +11681,19 @@
           <t>Taalmaat</t>
         </is>
       </c>
-      <c r="C285" s="3" t="inlineStr">
+      <c r="C285" s="3" t="n"/>
+      <c r="D285" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="D285" s="3" t="n"/>
       <c r="E285" s="3" t="n"/>
-      <c r="F285" s="3" t="inlineStr">
+      <c r="F285" s="3" t="n"/>
+      <c r="G285" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G285" s="3" t="n"/>
       <c r="H285" s="3" t="n"/>
       <c r="I285" s="3" t="n"/>
       <c r="J285" s="3" t="n"/>
@@ -11414,6 +11711,7 @@
       <c r="V285" s="3" t="n"/>
       <c r="W285" s="3" t="n"/>
       <c r="X285" s="3" t="n"/>
+      <c r="Y285" s="3" t="n"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -11421,7 +11719,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C286" s="3" t="n"/>
@@ -11446,6 +11744,7 @@
       <c r="V286" s="3" t="n"/>
       <c r="W286" s="3" t="n"/>
       <c r="X286" s="3" t="n"/>
+      <c r="Y286" s="3" t="n"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -11453,7 +11752,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C287" s="3" t="n"/>
@@ -11478,6 +11777,7 @@
       <c r="V287" s="3" t="n"/>
       <c r="W287" s="3" t="n"/>
       <c r="X287" s="3" t="n"/>
+      <c r="Y287" s="3" t="n"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -11485,7 +11785,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C288" s="3" t="n"/>
@@ -11510,6 +11810,7 @@
       <c r="V288" s="3" t="n"/>
       <c r="W288" s="3" t="n"/>
       <c r="X288" s="3" t="n"/>
+      <c r="Y288" s="3" t="n"/>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -11520,27 +11821,27 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C289" s="2" t="inlineStr">
+      <c r="C289" s="2" t="inlineStr"/>
+      <c r="D289" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="D289" s="2" t="inlineStr">
+      <c r="E289" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="E289" s="2" t="inlineStr">
+      <c r="F289" s="2" t="inlineStr">
         <is>
           <t>net</t>
         </is>
       </c>
-      <c r="F289" s="2" t="inlineStr">
+      <c r="G289" s="2" t="inlineStr">
         <is>
           <t>gekoppeld</t>
         </is>
       </c>
-      <c r="G289" s="2" t="n"/>
       <c r="H289" s="2" t="n"/>
       <c r="I289" s="2" t="n"/>
       <c r="J289" s="2" t="n"/>
@@ -11558,6 +11859,7 @@
       <c r="V289" s="2" t="n"/>
       <c r="W289" s="2" t="n"/>
       <c r="X289" s="2" t="n"/>
+      <c r="Y289" s="2" t="n"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -11565,16 +11867,16 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C290" s="3" t="n"/>
-      <c r="D290" s="3" t="inlineStr">
+      <c r="D290" s="3" t="n"/>
+      <c r="E290" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E290" s="3" t="n"/>
       <c r="F290" s="3" t="n"/>
       <c r="G290" s="3" t="n"/>
       <c r="H290" s="3" t="n"/>
@@ -11594,6 +11896,7 @@
       <c r="V290" s="3" t="n"/>
       <c r="W290" s="3" t="n"/>
       <c r="X290" s="3" t="n"/>
+      <c r="Y290" s="3" t="n"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -11604,12 +11907,12 @@
           <t>MLU</t>
         </is>
       </c>
-      <c r="C291" s="3" t="inlineStr">
+      <c r="C291" s="3" t="n"/>
+      <c r="D291" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D291" s="3" t="n"/>
       <c r="E291" s="3" t="n"/>
       <c r="F291" s="3" t="n"/>
       <c r="G291" s="3" t="n"/>
@@ -11630,6 +11933,7 @@
       <c r="V291" s="3" t="n"/>
       <c r="W291" s="3" t="n"/>
       <c r="X291" s="3" t="n"/>
+      <c r="Y291" s="3" t="n"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -11645,10 +11949,14 @@
       <c r="E292" s="3" t="n"/>
       <c r="F292" s="3" t="inlineStr">
         <is>
+          <t>DEL PV</t>
+        </is>
+      </c>
+      <c r="G292" s="3" t="inlineStr">
+        <is>
           <t>LEX</t>
         </is>
       </c>
-      <c r="G292" s="3" t="n"/>
       <c r="H292" s="3" t="n"/>
       <c r="I292" s="3" t="n"/>
       <c r="J292" s="3" t="n"/>
@@ -11666,6 +11974,7 @@
       <c r="V292" s="3" t="n"/>
       <c r="W292" s="3" t="n"/>
       <c r="X292" s="3" t="n"/>
+      <c r="Y292" s="3" t="n"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -11673,7 +11982,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C293" s="3" t="n"/>
@@ -11698,6 +12007,7 @@
       <c r="V293" s="3" t="n"/>
       <c r="W293" s="3" t="n"/>
       <c r="X293" s="3" t="n"/>
+      <c r="Y293" s="3" t="n"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -11705,7 +12015,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C294" s="3" t="n"/>
@@ -11730,6 +12040,7 @@
       <c r="V294" s="3" t="n"/>
       <c r="W294" s="3" t="n"/>
       <c r="X294" s="3" t="n"/>
+      <c r="Y294" s="3" t="n"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -11737,16 +12048,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C295" s="3" t="n"/>
       <c r="D295" s="3" t="n"/>
-      <c r="E295" s="3" t="inlineStr">
-        <is>
-          <t>DEL PV</t>
-        </is>
-      </c>
+      <c r="E295" s="3" t="n"/>
       <c r="F295" s="3" t="n"/>
       <c r="G295" s="3" t="n"/>
       <c r="H295" s="3" t="n"/>
@@ -11766,6 +12073,7 @@
       <c r="V295" s="3" t="n"/>
       <c r="W295" s="3" t="n"/>
       <c r="X295" s="3" t="n"/>
+      <c r="Y295" s="3" t="n"/>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -11776,17 +12084,17 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C296" s="2" t="inlineStr">
+      <c r="C296" s="2" t="inlineStr"/>
+      <c r="D296" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="D296" s="2" t="inlineStr">
+      <c r="E296" s="2" t="inlineStr">
         <is>
           <t>weet</t>
         </is>
       </c>
-      <c r="E296" s="2" t="n"/>
       <c r="F296" s="2" t="n"/>
       <c r="G296" s="2" t="n"/>
       <c r="H296" s="2" t="n"/>
@@ -11806,6 +12114,7 @@
       <c r="V296" s="2" t="n"/>
       <c r="W296" s="2" t="n"/>
       <c r="X296" s="2" t="n"/>
+      <c r="Y296" s="2" t="n"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -11813,7 +12122,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C297" s="3" t="n"/>
@@ -11838,6 +12147,7 @@
       <c r="V297" s="3" t="n"/>
       <c r="W297" s="3" t="n"/>
       <c r="X297" s="3" t="n"/>
+      <c r="Y297" s="3" t="n"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -11870,6 +12180,7 @@
       <c r="V298" s="3" t="n"/>
       <c r="W298" s="3" t="n"/>
       <c r="X298" s="3" t="n"/>
+      <c r="Y298" s="3" t="n"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -11881,12 +12192,12 @@
         </is>
       </c>
       <c r="C299" s="3" t="n"/>
-      <c r="D299" s="3" t="inlineStr">
+      <c r="D299" s="3" t="n"/>
+      <c r="E299" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="E299" s="3" t="n"/>
       <c r="F299" s="3" t="n"/>
       <c r="G299" s="3" t="n"/>
       <c r="H299" s="3" t="n"/>
@@ -11906,6 +12217,7 @@
       <c r="V299" s="3" t="n"/>
       <c r="W299" s="3" t="n"/>
       <c r="X299" s="3" t="n"/>
+      <c r="Y299" s="3" t="n"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -11913,7 +12225,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C300" s="3" t="n"/>
@@ -11938,6 +12250,7 @@
       <c r="V300" s="3" t="n"/>
       <c r="W300" s="3" t="n"/>
       <c r="X300" s="3" t="n"/>
+      <c r="Y300" s="3" t="n"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -11945,7 +12258,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C301" s="3" t="n"/>
@@ -11970,6 +12283,7 @@
       <c r="V301" s="3" t="n"/>
       <c r="W301" s="3" t="n"/>
       <c r="X301" s="3" t="n"/>
+      <c r="Y301" s="3" t="n"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -11977,7 +12291,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C302" s="3" t="n"/>
@@ -12002,6 +12316,7 @@
       <c r="V302" s="3" t="n"/>
       <c r="W302" s="3" t="n"/>
       <c r="X302" s="3" t="n"/>
+      <c r="Y302" s="3" t="n"/>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -12012,67 +12327,67 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C303" s="2" t="inlineStr">
+      <c r="C303" s="2" t="inlineStr"/>
+      <c r="D303" s="2" t="inlineStr">
         <is>
           <t>dus</t>
         </is>
       </c>
-      <c r="D303" s="2" t="inlineStr">
+      <c r="E303" s="2" t="inlineStr">
         <is>
           <t>maar</t>
         </is>
       </c>
-      <c r="E303" s="2" t="inlineStr">
+      <c r="F303" s="2" t="inlineStr">
         <is>
           <t>ben</t>
         </is>
       </c>
-      <c r="F303" s="2" t="inlineStr">
+      <c r="G303" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="G303" s="2" t="inlineStr">
+      <c r="H303" s="2" t="inlineStr">
         <is>
           <t>veel</t>
         </is>
       </c>
-      <c r="H303" s="2" t="inlineStr">
+      <c r="I303" s="2" t="inlineStr">
         <is>
           <t>geweest</t>
         </is>
       </c>
-      <c r="I303" s="2" t="inlineStr">
+      <c r="J303" s="2" t="inlineStr">
         <is>
           <t>maar</t>
         </is>
       </c>
-      <c r="J303" s="2" t="inlineStr">
+      <c r="K303" s="2" t="inlineStr">
         <is>
           <t>ook</t>
         </is>
       </c>
-      <c r="K303" s="2" t="inlineStr">
+      <c r="L303" s="2" t="inlineStr">
         <is>
           <t>als</t>
         </is>
       </c>
-      <c r="L303" s="2" t="inlineStr">
+      <c r="M303" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="M303" s="2" t="inlineStr">
+      <c r="N303" s="2" t="inlineStr">
         <is>
           <t>hier</t>
         </is>
       </c>
-      <c r="N303" s="2" t="inlineStr">
+      <c r="O303" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="O303" s="2" t="n"/>
       <c r="P303" s="2" t="n"/>
       <c r="Q303" s="2" t="n"/>
       <c r="R303" s="2" t="n"/>
@@ -12082,6 +12397,7 @@
       <c r="V303" s="2" t="n"/>
       <c r="W303" s="2" t="n"/>
       <c r="X303" s="2" t="n"/>
+      <c r="Y303" s="2" t="n"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -12089,7 +12405,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C304" s="3" t="n"/>
@@ -12103,12 +12419,12 @@
       <c r="K304" s="3" t="n"/>
       <c r="L304" s="3" t="n"/>
       <c r="M304" s="3" t="n"/>
-      <c r="N304" s="3" t="inlineStr">
+      <c r="N304" s="3" t="n"/>
+      <c r="O304" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="O304" s="3" t="n"/>
       <c r="P304" s="3" t="n"/>
       <c r="Q304" s="3" t="n"/>
       <c r="R304" s="3" t="n"/>
@@ -12118,6 +12434,7 @@
       <c r="V304" s="3" t="n"/>
       <c r="W304" s="3" t="n"/>
       <c r="X304" s="3" t="n"/>
+      <c r="Y304" s="3" t="n"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -12150,6 +12467,7 @@
       <c r="V305" s="3" t="n"/>
       <c r="W305" s="3" t="n"/>
       <c r="X305" s="3" t="n"/>
+      <c r="Y305" s="3" t="n"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -12162,19 +12480,19 @@
       </c>
       <c r="C306" s="3" t="n"/>
       <c r="D306" s="3" t="n"/>
-      <c r="E306" s="3" t="inlineStr">
+      <c r="E306" s="3" t="n"/>
+      <c r="F306" s="3" t="inlineStr">
         <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="F306" s="3" t="n"/>
       <c r="G306" s="3" t="n"/>
-      <c r="H306" s="3" t="inlineStr">
+      <c r="H306" s="3" t="n"/>
+      <c r="I306" s="3" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I306" s="3" t="n"/>
       <c r="J306" s="3" t="n"/>
       <c r="K306" s="3" t="n"/>
       <c r="L306" s="3" t="n"/>
@@ -12190,6 +12508,7 @@
       <c r="V306" s="3" t="n"/>
       <c r="W306" s="3" t="n"/>
       <c r="X306" s="3" t="n"/>
+      <c r="Y306" s="3" t="n"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -12197,7 +12516,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C307" s="3" t="n"/>
@@ -12222,6 +12541,7 @@
       <c r="V307" s="3" t="n"/>
       <c r="W307" s="3" t="n"/>
       <c r="X307" s="3" t="n"/>
+      <c r="Y307" s="3" t="n"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -12229,7 +12549,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C308" s="3" t="n"/>
@@ -12254,6 +12574,7 @@
       <c r="V308" s="3" t="n"/>
       <c r="W308" s="3" t="n"/>
       <c r="X308" s="3" t="n"/>
+      <c r="Y308" s="3" t="n"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -12261,7 +12582,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C309" s="3" t="n"/>
@@ -12286,6 +12607,7 @@
       <c r="V309" s="3" t="n"/>
       <c r="W309" s="3" t="n"/>
       <c r="X309" s="3" t="n"/>
+      <c r="Y309" s="3" t="n"/>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -12296,67 +12618,67 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C310" s="2" t="inlineStr">
+      <c r="C310" s="2" t="inlineStr"/>
+      <c r="D310" s="2" t="inlineStr">
         <is>
           <t>oo</t>
         </is>
       </c>
-      <c r="D310" s="2" t="inlineStr">
+      <c r="E310" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="E310" s="2" t="inlineStr">
+      <c r="F310" s="2" t="inlineStr">
         <is>
           <t>ja</t>
         </is>
       </c>
-      <c r="F310" s="2" t="inlineStr">
+      <c r="G310" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="G310" s="2" t="inlineStr">
+      <c r="H310" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="H310" s="2" t="inlineStr">
+      <c r="I310" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="I310" s="2" t="inlineStr">
+      <c r="J310" s="2" t="inlineStr">
         <is>
           <t>zing</t>
         </is>
       </c>
-      <c r="J310" s="2" t="inlineStr">
+      <c r="K310" s="2" t="inlineStr">
         <is>
           <t>met</t>
         </is>
       </c>
-      <c r="K310" s="2" t="inlineStr">
+      <c r="L310" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="L310" s="2" t="inlineStr">
+      <c r="M310" s="2" t="inlineStr">
         <is>
           <t>oudere</t>
         </is>
       </c>
-      <c r="M310" s="2" t="inlineStr">
+      <c r="N310" s="2" t="inlineStr">
         <is>
           <t>mensen</t>
         </is>
       </c>
-      <c r="N310" s="2" t="inlineStr">
+      <c r="O310" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="O310" s="2" t="n"/>
       <c r="P310" s="2" t="n"/>
       <c r="Q310" s="2" t="n"/>
       <c r="R310" s="2" t="n"/>
@@ -12366,6 +12688,7 @@
       <c r="V310" s="2" t="n"/>
       <c r="W310" s="2" t="n"/>
       <c r="X310" s="2" t="n"/>
+      <c r="Y310" s="2" t="n"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -12373,46 +12696,46 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
-        </is>
-      </c>
-      <c r="C311" s="3" t="inlineStr">
+          <t>Samplegrootte</t>
+        </is>
+      </c>
+      <c r="C311" s="3" t="n"/>
+      <c r="D311" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D311" s="3" t="inlineStr">
+      <c r="E311" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E311" s="3" t="n"/>
-      <c r="F311" s="3" t="inlineStr">
+      <c r="F311" s="3" t="n"/>
+      <c r="G311" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G311" s="3" t="inlineStr">
+      <c r="H311" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H311" s="3" t="n"/>
       <c r="I311" s="3" t="n"/>
       <c r="J311" s="3" t="n"/>
-      <c r="K311" s="3" t="inlineStr">
+      <c r="K311" s="3" t="n"/>
+      <c r="L311" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L311" s="3" t="n"/>
       <c r="M311" s="3" t="n"/>
-      <c r="N311" s="3" t="inlineStr">
+      <c r="N311" s="3" t="n"/>
+      <c r="O311" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="O311" s="3" t="n"/>
       <c r="P311" s="3" t="n"/>
       <c r="Q311" s="3" t="n"/>
       <c r="R311" s="3" t="n"/>
@@ -12422,6 +12745,7 @@
       <c r="V311" s="3" t="n"/>
       <c r="W311" s="3" t="n"/>
       <c r="X311" s="3" t="n"/>
+      <c r="Y311" s="3" t="n"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -12434,12 +12758,12 @@
       </c>
       <c r="C312" s="3" t="n"/>
       <c r="D312" s="3" t="n"/>
-      <c r="E312" s="3" t="inlineStr">
+      <c r="E312" s="3" t="n"/>
+      <c r="F312" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F312" s="3" t="n"/>
       <c r="G312" s="3" t="n"/>
       <c r="H312" s="3" t="n"/>
       <c r="I312" s="3" t="n"/>
@@ -12458,6 +12782,7 @@
       <c r="V312" s="3" t="n"/>
       <c r="W312" s="3" t="n"/>
       <c r="X312" s="3" t="n"/>
+      <c r="Y312" s="3" t="n"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -12474,24 +12799,24 @@
       <c r="F313" s="3" t="n"/>
       <c r="G313" s="3" t="n"/>
       <c r="H313" s="3" t="n"/>
-      <c r="I313" s="3" t="inlineStr">
+      <c r="I313" s="3" t="n"/>
+      <c r="J313" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="J313" s="3" t="n"/>
       <c r="K313" s="3" t="n"/>
-      <c r="L313" s="3" t="inlineStr">
+      <c r="L313" s="3" t="n"/>
+      <c r="M313" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="M313" s="3" t="inlineStr">
+      <c r="N313" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="N313" s="3" t="n"/>
       <c r="O313" s="3" t="n"/>
       <c r="P313" s="3" t="n"/>
       <c r="Q313" s="3" t="n"/>
@@ -12502,6 +12827,7 @@
       <c r="V313" s="3" t="n"/>
       <c r="W313" s="3" t="n"/>
       <c r="X313" s="3" t="n"/>
+      <c r="Y313" s="3" t="n"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -12509,7 +12835,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C314" s="3" t="n"/>
@@ -12534,6 +12860,7 @@
       <c r="V314" s="3" t="n"/>
       <c r="W314" s="3" t="n"/>
       <c r="X314" s="3" t="n"/>
+      <c r="Y314" s="3" t="n"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -12541,7 +12868,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C315" s="3" t="n"/>
@@ -12566,6 +12893,7 @@
       <c r="V315" s="3" t="n"/>
       <c r="W315" s="3" t="n"/>
       <c r="X315" s="3" t="n"/>
+      <c r="Y315" s="3" t="n"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -12573,7 +12901,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C316" s="3" t="n"/>
@@ -12598,6 +12926,7 @@
       <c r="V316" s="3" t="n"/>
       <c r="W316" s="3" t="n"/>
       <c r="X316" s="3" t="n"/>
+      <c r="Y316" s="3" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -12608,72 +12937,72 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C317" s="2" t="inlineStr">
+      <c r="C317" s="2" t="inlineStr"/>
+      <c r="D317" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="D317" s="2" t="inlineStr">
+      <c r="E317" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="E317" s="2" t="inlineStr">
+      <c r="F317" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="F317" s="2" t="inlineStr">
+      <c r="G317" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="G317" s="2" t="inlineStr">
+      <c r="H317" s="2" t="inlineStr">
         <is>
           <t>doe</t>
         </is>
       </c>
-      <c r="H317" s="2" t="inlineStr">
+      <c r="I317" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="I317" s="2" t="inlineStr">
+      <c r="J317" s="2" t="inlineStr">
         <is>
           <t>boekjes</t>
         </is>
       </c>
-      <c r="J317" s="2" t="inlineStr">
+      <c r="K317" s="2" t="inlineStr">
         <is>
           <t>voor</t>
         </is>
       </c>
-      <c r="K317" s="2" t="inlineStr">
+      <c r="L317" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="L317" s="2" t="inlineStr">
+      <c r="M317" s="2" t="inlineStr">
         <is>
           <t>club</t>
         </is>
       </c>
-      <c r="M317" s="2" t="inlineStr">
+      <c r="N317" s="2" t="inlineStr">
         <is>
           <t>geloof</t>
         </is>
       </c>
-      <c r="N317" s="2" t="inlineStr">
+      <c r="O317" s="2" t="inlineStr">
         <is>
           <t>ik</t>
         </is>
       </c>
-      <c r="O317" s="2" t="inlineStr">
+      <c r="P317" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="P317" s="2" t="n"/>
       <c r="Q317" s="2" t="n"/>
       <c r="R317" s="2" t="n"/>
       <c r="S317" s="2" t="n"/>
@@ -12682,6 +13011,7 @@
       <c r="V317" s="2" t="n"/>
       <c r="W317" s="2" t="n"/>
       <c r="X317" s="2" t="n"/>
+      <c r="Y317" s="2" t="n"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -12689,43 +13019,43 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C318" s="3" t="n"/>
-      <c r="D318" s="3" t="inlineStr">
+      <c r="D318" s="3" t="n"/>
+      <c r="E318" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E318" s="3" t="inlineStr">
+      <c r="F318" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F318" s="3" t="n"/>
       <c r="G318" s="3" t="n"/>
-      <c r="H318" s="3" t="inlineStr">
+      <c r="H318" s="3" t="n"/>
+      <c r="I318" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I318" s="3" t="n"/>
       <c r="J318" s="3" t="n"/>
-      <c r="K318" s="3" t="inlineStr">
+      <c r="K318" s="3" t="n"/>
+      <c r="L318" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L318" s="3" t="n"/>
       <c r="M318" s="3" t="n"/>
       <c r="N318" s="3" t="n"/>
-      <c r="O318" s="3" t="inlineStr">
+      <c r="O318" s="3" t="n"/>
+      <c r="P318" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P318" s="3" t="n"/>
       <c r="Q318" s="3" t="n"/>
       <c r="R318" s="3" t="n"/>
       <c r="S318" s="3" t="n"/>
@@ -12734,6 +13064,7 @@
       <c r="V318" s="3" t="n"/>
       <c r="W318" s="3" t="n"/>
       <c r="X318" s="3" t="n"/>
+      <c r="Y318" s="3" t="n"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -12744,12 +13075,12 @@
           <t>MLU</t>
         </is>
       </c>
-      <c r="C319" s="3" t="inlineStr">
+      <c r="C319" s="3" t="n"/>
+      <c r="D319" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D319" s="3" t="n"/>
       <c r="E319" s="3" t="n"/>
       <c r="F319" s="3" t="n"/>
       <c r="G319" s="3" t="n"/>
@@ -12770,6 +13101,7 @@
       <c r="V319" s="3" t="n"/>
       <c r="W319" s="3" t="n"/>
       <c r="X319" s="3" t="n"/>
+      <c r="Y319" s="3" t="n"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -12784,30 +13116,30 @@
       <c r="D320" s="3" t="n"/>
       <c r="E320" s="3" t="n"/>
       <c r="F320" s="3" t="n"/>
-      <c r="G320" s="3" t="inlineStr">
+      <c r="G320" s="3" t="n"/>
+      <c r="H320" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="H320" s="3" t="n"/>
-      <c r="I320" s="3" t="inlineStr">
+      <c r="I320" s="3" t="n"/>
+      <c r="J320" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J320" s="3" t="n"/>
       <c r="K320" s="3" t="n"/>
-      <c r="L320" s="3" t="inlineStr">
+      <c r="L320" s="3" t="n"/>
+      <c r="M320" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="M320" s="3" t="inlineStr">
+      <c r="N320" s="3" t="inlineStr">
         <is>
           <t>LEX,PV</t>
         </is>
       </c>
-      <c r="N320" s="3" t="n"/>
       <c r="O320" s="3" t="n"/>
       <c r="P320" s="3" t="n"/>
       <c r="Q320" s="3" t="n"/>
@@ -12818,6 +13150,7 @@
       <c r="V320" s="3" t="n"/>
       <c r="W320" s="3" t="n"/>
       <c r="X320" s="3" t="n"/>
+      <c r="Y320" s="3" t="n"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -12825,7 +13158,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C321" s="3" t="n"/>
@@ -12850,6 +13183,7 @@
       <c r="V321" s="3" t="n"/>
       <c r="W321" s="3" t="n"/>
       <c r="X321" s="3" t="n"/>
+      <c r="Y321" s="3" t="n"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -12857,7 +13191,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C322" s="3" t="n"/>
@@ -12882,6 +13216,7 @@
       <c r="V322" s="3" t="n"/>
       <c r="W322" s="3" t="n"/>
       <c r="X322" s="3" t="n"/>
+      <c r="Y322" s="3" t="n"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -12889,7 +13224,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C323" s="3" t="n"/>
@@ -12914,6 +13249,7 @@
       <c r="V323" s="3" t="n"/>
       <c r="W323" s="3" t="n"/>
       <c r="X323" s="3" t="n"/>
+      <c r="Y323" s="3" t="n"/>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -12924,32 +13260,32 @@
           <t>Utt</t>
         </is>
       </c>
-      <c r="C324" s="2" t="inlineStr">
+      <c r="C324" s="2" t="inlineStr"/>
+      <c r="D324" s="2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D324" s="2" t="inlineStr">
+      <c r="E324" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="E324" s="2" t="inlineStr">
+      <c r="F324" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="F324" s="2" t="inlineStr">
+      <c r="G324" s="2" t="inlineStr">
         <is>
           <t>uh</t>
         </is>
       </c>
-      <c r="G324" s="2" t="inlineStr">
+      <c r="H324" s="2" t="inlineStr">
         <is>
           <t>sorry</t>
         </is>
       </c>
-      <c r="H324" s="2" t="n"/>
       <c r="I324" s="2" t="n"/>
       <c r="J324" s="2" t="n"/>
       <c r="K324" s="2" t="n"/>
@@ -12966,6 +13302,7 @@
       <c r="V324" s="2" t="n"/>
       <c r="W324" s="2" t="n"/>
       <c r="X324" s="2" t="n"/>
+      <c r="Y324" s="2" t="n"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -12973,31 +13310,31 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>SampleGrootte</t>
+          <t>Samplegrootte</t>
         </is>
       </c>
       <c r="C325" s="3" t="n"/>
-      <c r="D325" s="3" t="inlineStr">
+      <c r="D325" s="3" t="n"/>
+      <c r="E325" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E325" s="3" t="inlineStr">
+      <c r="F325" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F325" s="3" t="inlineStr">
+      <c r="G325" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G325" s="3" t="inlineStr">
+      <c r="H325" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H325" s="3" t="n"/>
       <c r="I325" s="3" t="n"/>
       <c r="J325" s="3" t="n"/>
       <c r="K325" s="3" t="n"/>
@@ -13014,6 +13351,7 @@
       <c r="V325" s="3" t="n"/>
       <c r="W325" s="3" t="n"/>
       <c r="X325" s="3" t="n"/>
+      <c r="Y325" s="3" t="n"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -13046,6 +13384,7 @@
       <c r="V326" s="3" t="n"/>
       <c r="W326" s="3" t="n"/>
       <c r="X326" s="3" t="n"/>
+      <c r="Y326" s="3" t="n"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -13078,6 +13417,7 @@
       <c r="V327" s="3" t="n"/>
       <c r="W327" s="3" t="n"/>
       <c r="X327" s="3" t="n"/>
+      <c r="Y327" s="3" t="n"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -13085,7 +13425,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Lemma</t>
+          <t>Foutenanalyse</t>
         </is>
       </c>
       <c r="C328" s="3" t="n"/>
@@ -13110,6 +13450,7 @@
       <c r="V328" s="3" t="n"/>
       <c r="W328" s="3" t="n"/>
       <c r="X328" s="3" t="n"/>
+      <c r="Y328" s="3" t="n"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -13117,7 +13458,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Grammaticale fout</t>
+          <t>Lemma</t>
         </is>
       </c>
       <c r="C329" s="3" t="n"/>
@@ -13142,6 +13483,7 @@
       <c r="V329" s="3" t="n"/>
       <c r="W329" s="3" t="n"/>
       <c r="X329" s="3" t="n"/>
+      <c r="Y329" s="3" t="n"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -13149,7 +13491,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Commentaar</t>
         </is>
       </c>
       <c r="C330" s="3" t="n"/>
@@ -13174,6 +13516,7 @@
       <c r="V330" s="3" t="n"/>
       <c r="W330" s="3" t="n"/>
       <c r="X330" s="3" t="n"/>
+      <c r="Y330" s="3" t="n"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
